--- a/public/data/result/output/source_data.xlsx
+++ b/public/data/result/output/source_data.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>省份</t>
+          <t>province</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>时间</t>
+          <t>year</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/public/data/result/output/source_data.xlsx
+++ b/public/data/result/output/source_data.xlsx
@@ -675,10 +675,10 @@
         <v>2000</v>
       </c>
       <c r="C2" t="n">
-        <v>8.390000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="D2" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="E2" t="n">
         <v>0.9</v>
@@ -798,7 +798,7 @@
         <v>6.1</v>
       </c>
       <c r="D3" t="n">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="E3" t="n">
         <v>0.8</v>
@@ -912,7 +912,7 @@
         <v>6.6</v>
       </c>
       <c r="D4" t="n">
-        <v>6.6</v>
+        <v>5.73</v>
       </c>
       <c r="E4" t="n">
         <v>0.87</v>
@@ -1029,10 +1029,10 @@
         <v>2003</v>
       </c>
       <c r="C5" t="n">
-        <v>5.1</v>
+        <v>5.06</v>
       </c>
       <c r="D5" t="n">
-        <v>5.06</v>
+        <v>5.15</v>
       </c>
       <c r="E5" t="n">
         <v>-0.09</v>
@@ -1149,10 +1149,10 @@
         <v>2004</v>
       </c>
       <c r="C6" t="n">
-        <v>6.1</v>
+        <v>6.13</v>
       </c>
       <c r="D6" t="n">
-        <v>6.13</v>
+        <v>5.39</v>
       </c>
       <c r="E6" t="n">
         <v>0.74</v>
@@ -1272,7 +1272,7 @@
         <v>6.29</v>
       </c>
       <c r="D7" t="n">
-        <v>6.29</v>
+        <v>5.2</v>
       </c>
       <c r="E7" t="n">
         <v>1.09</v>
@@ -1394,7 +1394,7 @@
         <v>6.26</v>
       </c>
       <c r="D8" t="n">
-        <v>6.26</v>
+        <v>4.94</v>
       </c>
       <c r="E8" t="n">
         <v>1.29</v>
@@ -1520,7 +1520,7 @@
         <v>8.32</v>
       </c>
       <c r="D9" t="n">
-        <v>8.32</v>
+        <v>4.83</v>
       </c>
       <c r="E9" t="n">
         <v>3.4</v>
@@ -1644,7 +1644,7 @@
         <v>8.17</v>
       </c>
       <c r="D10" t="n">
-        <v>8.17</v>
+        <v>4.59</v>
       </c>
       <c r="E10" t="n">
         <v>3.42</v>
@@ -1772,7 +1772,7 @@
         <v>8.06</v>
       </c>
       <c r="D11" t="n">
-        <v>8.06</v>
+        <v>4.33</v>
       </c>
       <c r="E11" t="n">
         <v>3.5</v>
@@ -1900,7 +1900,7 @@
         <v>7.48</v>
       </c>
       <c r="D12" t="n">
-        <v>7.48</v>
+        <v>4.29</v>
       </c>
       <c r="E12" t="n">
         <v>3.07</v>
@@ -2034,7 +2034,7 @@
         <v>8.289999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>8.289999999999999</v>
+        <v>4.26</v>
       </c>
       <c r="E13" t="n">
         <v>4.02</v>
@@ -2174,7 +2174,7 @@
         <v>9.050000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>9.050000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="E14" t="n">
         <v>4.74</v>
@@ -2314,7 +2314,7 @@
         <v>8.93</v>
       </c>
       <c r="D15" t="n">
-        <v>8.93</v>
+        <v>4.5</v>
       </c>
       <c r="E15" t="n">
         <v>4.41</v>
@@ -2454,7 +2454,7 @@
         <v>9.75</v>
       </c>
       <c r="D16" t="n">
-        <v>9.75</v>
+        <v>4.89</v>
       </c>
       <c r="E16" t="n">
         <v>4.83</v>
@@ -2592,7 +2592,7 @@
         <v>7.96</v>
       </c>
       <c r="D17" t="n">
-        <v>7.96</v>
+        <v>4.91</v>
       </c>
       <c r="E17" t="n">
         <v>3.01</v>
@@ -2730,7 +2730,7 @@
         <v>9.32</v>
       </c>
       <c r="D18" t="n">
-        <v>9.32</v>
+        <v>5.16</v>
       </c>
       <c r="E18" t="n">
         <v>4.12</v>
@@ -2870,7 +2870,7 @@
         <v>9.06</v>
       </c>
       <c r="D19" t="n">
-        <v>9.06</v>
+        <v>5.24</v>
       </c>
       <c r="E19" t="n">
         <v>3.76</v>
@@ -3008,7 +3008,7 @@
         <v>8.24</v>
       </c>
       <c r="D20" t="n">
-        <v>8.24</v>
+        <v>5.5</v>
       </c>
       <c r="E20" t="n">
         <v>2.66</v>
@@ -3144,7 +3144,7 @@
         <v>8.119999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>8.119999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="E21" t="n">
         <v>2.63</v>
@@ -3277,10 +3277,10 @@
         <v>2020</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>6.98</v>
       </c>
       <c r="D22" t="n">
-        <v>6.98</v>
+        <v>4.59</v>
       </c>
       <c r="E22" t="n">
         <v>2.39</v>
@@ -3414,7 +3414,7 @@
         <v>6.35</v>
       </c>
       <c r="D23" t="n">
-        <v>6.35</v>
+        <v>5.39</v>
       </c>
       <c r="E23" t="n">
         <v>0.96</v>
@@ -3534,9 +3534,11 @@
       <c r="B24" t="n">
         <v>2022</v>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>5.67</v>
+      </c>
       <c r="D24" t="n">
-        <v>5.67</v>
+        <v>5.72</v>
       </c>
       <c r="E24" t="n">
         <v>-0.05</v>
@@ -3647,7 +3649,9 @@
         <v>2023</v>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>6.13</v>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -3705,10 +3709,10 @@
         <v>2000</v>
       </c>
       <c r="C26" t="n">
-        <v>77.2</v>
+        <v>7.72</v>
       </c>
       <c r="D26" t="n">
-        <v>7.72</v>
+        <v>6.17</v>
       </c>
       <c r="E26" t="n">
         <v>1.55</v>
@@ -3832,7 +3836,7 @@
         <v>7.58</v>
       </c>
       <c r="D27" t="n">
-        <v>7.58</v>
+        <v>5.94</v>
       </c>
       <c r="E27" t="n">
         <v>1.64</v>
@@ -3944,7 +3948,7 @@
         <v>7.49</v>
       </c>
       <c r="D28" t="n">
-        <v>7.49</v>
+        <v>6.04</v>
       </c>
       <c r="E28" t="n">
         <v>1.45</v>
@@ -4064,7 +4068,7 @@
         <v>7.14</v>
       </c>
       <c r="D29" t="n">
-        <v>7.14</v>
+        <v>6.04</v>
       </c>
       <c r="E29" t="n">
         <v>1.1</v>
@@ -4186,7 +4190,7 @@
         <v>7.31</v>
       </c>
       <c r="D30" t="n">
-        <v>7.31</v>
+        <v>5.97</v>
       </c>
       <c r="E30" t="n">
         <v>1.34</v>
@@ -4308,7 +4312,7 @@
         <v>7.44</v>
       </c>
       <c r="D31" t="n">
-        <v>7.44</v>
+        <v>6.01</v>
       </c>
       <c r="E31" t="n">
         <v>1.43</v>
@@ -4434,7 +4438,7 @@
         <v>7.67</v>
       </c>
       <c r="D32" t="n">
-        <v>7.67</v>
+        <v>6.07</v>
       </c>
       <c r="E32" t="n">
         <v>1.6</v>
@@ -4562,7 +4566,7 @@
         <v>7.91</v>
       </c>
       <c r="D33" t="n">
-        <v>7.91</v>
+        <v>5.86</v>
       </c>
       <c r="E33" t="n">
         <v>2.05</v>
@@ -4688,7 +4692,7 @@
         <v>8.130000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>8.130000000000001</v>
+        <v>5.94</v>
       </c>
       <c r="E34" t="n">
         <v>2.19</v>
@@ -4816,7 +4820,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>8.300000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="E35" t="n">
         <v>2.6</v>
@@ -4948,7 +4952,7 @@
         <v>8.18</v>
       </c>
       <c r="D36" t="n">
-        <v>8.18</v>
+        <v>5.58</v>
       </c>
       <c r="E36" t="n">
         <v>2.6</v>
@@ -5086,7 +5090,7 @@
         <v>8.58</v>
       </c>
       <c r="D37" t="n">
-        <v>8.58</v>
+        <v>6.08</v>
       </c>
       <c r="E37" t="n">
         <v>2.5</v>
@@ -5226,7 +5230,7 @@
         <v>8.75</v>
       </c>
       <c r="D38" t="n">
-        <v>8.75</v>
+        <v>6.12</v>
       </c>
       <c r="E38" t="n">
         <v>2.63</v>
@@ -5366,7 +5370,7 @@
         <v>8.279999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>8.279999999999999</v>
+        <v>6</v>
       </c>
       <c r="E39" t="n">
         <v>2.28</v>
@@ -5502,7 +5506,7 @@
         <v>8.19</v>
       </c>
       <c r="D40" t="n">
-        <v>8.19</v>
+        <v>6.05</v>
       </c>
       <c r="E40" t="n">
         <v>2.14</v>
@@ -5636,7 +5640,7 @@
         <v>5.84</v>
       </c>
       <c r="D41" t="n">
-        <v>5.84</v>
+        <v>5.61</v>
       </c>
       <c r="E41" t="n">
         <v>0.23</v>
@@ -5774,7 +5778,7 @@
         <v>7.37</v>
       </c>
       <c r="D42" t="n">
-        <v>7.37</v>
+        <v>5.54</v>
       </c>
       <c r="E42" t="n">
         <v>1.83</v>
@@ -5914,7 +5918,7 @@
         <v>7.65</v>
       </c>
       <c r="D43" t="n">
-        <v>7.65</v>
+        <v>5.05</v>
       </c>
       <c r="E43" t="n">
         <v>2.6</v>
@@ -6052,7 +6056,7 @@
         <v>6.67</v>
       </c>
       <c r="D44" t="n">
-        <v>6.67</v>
+        <v>5.42</v>
       </c>
       <c r="E44" t="n">
         <v>1.25</v>
@@ -6186,7 +6190,7 @@
         <v>6.73</v>
       </c>
       <c r="D45" t="n">
-        <v>6.73</v>
+        <v>5.3</v>
       </c>
       <c r="E45" t="n">
         <v>1.43</v>
@@ -6322,7 +6326,7 @@
         <v>5.99</v>
       </c>
       <c r="D46" t="n">
-        <v>5.99</v>
+        <v>5.92</v>
       </c>
       <c r="E46" t="n">
         <v>0.07000000000000001</v>
@@ -6456,7 +6460,7 @@
         <v>5.3</v>
       </c>
       <c r="D47" t="n">
-        <v>5.3</v>
+        <v>6.23</v>
       </c>
       <c r="E47" t="n">
         <v>-0.93</v>
@@ -6576,9 +6580,11 @@
       <c r="B48" t="n">
         <v>2022</v>
       </c>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="n">
+        <v>4.75</v>
+      </c>
       <c r="D48" t="n">
-        <v>4.75</v>
+        <v>6.43</v>
       </c>
       <c r="E48" t="n">
         <v>-1.68</v>
@@ -6685,7 +6691,9 @@
         <v>2023</v>
       </c>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>7.04</v>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -6748,7 +6756,7 @@
         <v>11.3</v>
       </c>
       <c r="D50" t="n">
-        <v>11.3</v>
+        <v>6.21</v>
       </c>
       <c r="E50" t="n">
         <v>5.1</v>
@@ -6866,7 +6874,7 @@
         <v>11.16</v>
       </c>
       <c r="D51" t="n">
-        <v>11.16</v>
+        <v>6.18</v>
       </c>
       <c r="E51" t="n">
         <v>4.98</v>
@@ -6978,7 +6986,7 @@
         <v>11.53</v>
       </c>
       <c r="D52" t="n">
-        <v>11.53</v>
+        <v>6.25</v>
       </c>
       <c r="E52" t="n">
         <v>5.28</v>
@@ -7094,7 +7102,7 @@
         <v>11.43</v>
       </c>
       <c r="D53" t="n">
-        <v>11.43</v>
+        <v>6.27</v>
       </c>
       <c r="E53" t="n">
         <v>5.16</v>
@@ -7216,7 +7224,7 @@
         <v>11.98</v>
       </c>
       <c r="D54" t="n">
-        <v>11.98</v>
+        <v>6.19</v>
       </c>
       <c r="E54" t="n">
         <v>5.79</v>
@@ -7338,7 +7346,7 @@
         <v>12.84</v>
       </c>
       <c r="D55" t="n">
-        <v>12.84</v>
+        <v>6.75</v>
       </c>
       <c r="E55" t="n">
         <v>6.09</v>
@@ -7459,10 +7467,10 @@
         <v>2006</v>
       </c>
       <c r="C56" t="n">
-        <v>12.86</v>
+        <v>12.82</v>
       </c>
       <c r="D56" t="n">
-        <v>12.82</v>
+        <v>6.59</v>
       </c>
       <c r="E56" t="n">
         <v>6.23</v>
@@ -7588,7 +7596,7 @@
         <v>13.33</v>
       </c>
       <c r="D57" t="n">
-        <v>13.33</v>
+        <v>6.78</v>
       </c>
       <c r="E57" t="n">
         <v>6.55</v>
@@ -7714,7 +7722,7 @@
         <v>13.04</v>
       </c>
       <c r="D58" t="n">
-        <v>13.04</v>
+        <v>6.49</v>
       </c>
       <c r="E58" t="n">
         <v>6.55</v>
@@ -7844,7 +7852,7 @@
         <v>12.93</v>
       </c>
       <c r="D59" t="n">
-        <v>12.93</v>
+        <v>6.43</v>
       </c>
       <c r="E59" t="n">
         <v>6.5</v>
@@ -7974,7 +7982,7 @@
         <v>13.22</v>
       </c>
       <c r="D60" t="n">
-        <v>13.22</v>
+        <v>6.41</v>
       </c>
       <c r="E60" t="n">
         <v>6.81</v>
@@ -8110,7 +8118,7 @@
         <v>13.02</v>
       </c>
       <c r="D61" t="n">
-        <v>13.02</v>
+        <v>6.52</v>
       </c>
       <c r="E61" t="n">
         <v>6.5</v>
@@ -8250,7 +8258,7 @@
         <v>12.88</v>
       </c>
       <c r="D62" t="n">
-        <v>12.88</v>
+        <v>6.41</v>
       </c>
       <c r="E62" t="n">
         <v>6.47</v>
@@ -8390,7 +8398,7 @@
         <v>13.04</v>
       </c>
       <c r="D63" t="n">
-        <v>13.04</v>
+        <v>6.87</v>
       </c>
       <c r="E63" t="n">
         <v>6.17</v>
@@ -8526,7 +8534,7 @@
         <v>13.18</v>
       </c>
       <c r="D64" t="n">
-        <v>13.18</v>
+        <v>6.23</v>
       </c>
       <c r="E64" t="n">
         <v>6.95</v>
@@ -8660,7 +8668,7 @@
         <v>11.35</v>
       </c>
       <c r="D65" t="n">
-        <v>11.35</v>
+        <v>5.79</v>
       </c>
       <c r="E65" t="n">
         <v>5.56</v>
@@ -8798,7 +8806,7 @@
         <v>12.42</v>
       </c>
       <c r="D66" t="n">
-        <v>12.42</v>
+        <v>6.36</v>
       </c>
       <c r="E66" t="n">
         <v>6.06</v>
@@ -8938,7 +8946,7 @@
         <v>13.2</v>
       </c>
       <c r="D67" t="n">
-        <v>13.2</v>
+        <v>6.6</v>
       </c>
       <c r="E67" t="n">
         <v>6.6</v>
@@ -9074,7 +9082,7 @@
         <v>11.26</v>
       </c>
       <c r="D68" t="n">
-        <v>11.26</v>
+        <v>6.38</v>
       </c>
       <c r="E68" t="n">
         <v>4.88</v>
@@ -9206,7 +9214,7 @@
         <v>10.83</v>
       </c>
       <c r="D69" t="n">
-        <v>10.83</v>
+        <v>6.12</v>
       </c>
       <c r="E69" t="n">
         <v>4.71</v>
@@ -9342,7 +9350,7 @@
         <v>8.16</v>
       </c>
       <c r="D70" t="n">
-        <v>8.16</v>
+        <v>7.22</v>
       </c>
       <c r="E70" t="n">
         <v>0.9399999999999999</v>
@@ -9478,7 +9486,7 @@
         <v>7.15</v>
       </c>
       <c r="D71" t="n">
-        <v>7.15</v>
+        <v>7.58</v>
       </c>
       <c r="E71" t="n">
         <v>-0.43</v>
@@ -9602,7 +9610,7 @@
         <v>6.09</v>
       </c>
       <c r="D72" t="n">
-        <v>6.09</v>
+        <v>7.8</v>
       </c>
       <c r="E72" t="n">
         <v>-1.71</v>
@@ -9771,10 +9779,10 @@
         <v>2000</v>
       </c>
       <c r="C74" t="n">
-        <v>21.36</v>
+        <v>12.1</v>
       </c>
       <c r="D74" t="n">
-        <v>12.1</v>
+        <v>5.9</v>
       </c>
       <c r="E74" t="n">
         <v>6.1</v>
@@ -9892,7 +9900,7 @@
         <v>13.06</v>
       </c>
       <c r="D75" t="n">
-        <v>13.06</v>
+        <v>5.9</v>
       </c>
       <c r="E75" t="n">
         <v>7.16</v>
@@ -10006,7 +10014,7 @@
         <v>12.86</v>
       </c>
       <c r="D76" t="n">
-        <v>12.86</v>
+        <v>6.14</v>
       </c>
       <c r="E76" t="n">
         <v>6.72</v>
@@ -10124,7 +10132,7 @@
         <v>12.26</v>
       </c>
       <c r="D77" t="n">
-        <v>12.26</v>
+        <v>6.04</v>
       </c>
       <c r="E77" t="n">
         <v>6.22</v>
@@ -10242,7 +10250,7 @@
         <v>12.36</v>
       </c>
       <c r="D78" t="n">
-        <v>12.36</v>
+        <v>6.11</v>
       </c>
       <c r="E78" t="n">
         <v>6.25</v>
@@ -10360,7 +10368,7 @@
         <v>12.02</v>
       </c>
       <c r="D79" t="n">
-        <v>12.02</v>
+        <v>6</v>
       </c>
       <c r="E79" t="n">
         <v>6.02</v>
@@ -10480,7 +10488,7 @@
         <v>11.48</v>
       </c>
       <c r="D80" t="n">
-        <v>11.48</v>
+        <v>5.73</v>
       </c>
       <c r="E80" t="n">
         <v>5.75</v>
@@ -10603,10 +10611,10 @@
         <v>2007</v>
       </c>
       <c r="C81" t="n">
-        <v>11.3</v>
+        <v>11.31</v>
       </c>
       <c r="D81" t="n">
-        <v>11.31</v>
+        <v>5.97</v>
       </c>
       <c r="E81" t="n">
         <v>5.33</v>
@@ -10729,10 +10737,10 @@
         <v>2008</v>
       </c>
       <c r="C82" t="n">
-        <v>11.31</v>
+        <v>11.32</v>
       </c>
       <c r="D82" t="n">
-        <v>11.32</v>
+        <v>6.01</v>
       </c>
       <c r="E82" t="n">
         <v>5.31</v>
@@ -10862,7 +10870,7 @@
         <v>10.87</v>
       </c>
       <c r="D83" t="n">
-        <v>10.87</v>
+        <v>5.98</v>
       </c>
       <c r="E83" t="n">
         <v>4.89</v>
@@ -10990,7 +10998,7 @@
         <v>10.68</v>
       </c>
       <c r="D84" t="n">
-        <v>10.68</v>
+        <v>5.38</v>
       </c>
       <c r="E84" t="n">
         <v>5.3</v>
@@ -11126,7 +11134,7 @@
         <v>10.47</v>
       </c>
       <c r="D85" t="n">
-        <v>10.47</v>
+        <v>5.61</v>
       </c>
       <c r="E85" t="n">
         <v>4.86</v>
@@ -11266,7 +11274,7 @@
         <v>10.7</v>
       </c>
       <c r="D86" t="n">
-        <v>10.7</v>
+        <v>5.83</v>
       </c>
       <c r="E86" t="n">
         <v>4.87</v>
@@ -11406,7 +11414,7 @@
         <v>10.81</v>
       </c>
       <c r="D87" t="n">
-        <v>10.81</v>
+        <v>5.57</v>
       </c>
       <c r="E87" t="n">
         <v>5.24</v>
@@ -11542,7 +11550,7 @@
         <v>10.92</v>
       </c>
       <c r="D88" t="n">
-        <v>10.92</v>
+        <v>5.93</v>
       </c>
       <c r="E88" t="n">
         <v>4.99</v>
@@ -11676,7 +11684,7 @@
         <v>9.98</v>
       </c>
       <c r="D89" t="n">
-        <v>9.98</v>
+        <v>5.56</v>
       </c>
       <c r="E89" t="n">
         <v>4.42</v>
@@ -11814,7 +11822,7 @@
         <v>10.29</v>
       </c>
       <c r="D90" t="n">
-        <v>10.29</v>
+        <v>5.52</v>
       </c>
       <c r="E90" t="n">
         <v>4.77</v>
@@ -11954,7 +11962,7 @@
         <v>11.06</v>
       </c>
       <c r="D91" t="n">
-        <v>11.06</v>
+        <v>5.45</v>
       </c>
       <c r="E91" t="n">
         <v>5.61</v>
@@ -12090,7 +12098,7 @@
         <v>9.630000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>9.630000000000001</v>
+        <v>5.32</v>
       </c>
       <c r="E92" t="n">
         <v>4.31</v>
@@ -12222,7 +12230,7 @@
         <v>9.119999999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>9.119999999999999</v>
+        <v>5.85</v>
       </c>
       <c r="E93" t="n">
         <v>3.27</v>
@@ -12358,7 +12366,7 @@
         <v>8.26</v>
       </c>
       <c r="D94" t="n">
-        <v>8.26</v>
+        <v>7.02</v>
       </c>
       <c r="E94" t="n">
         <v>1.24</v>
@@ -12490,7 +12498,7 @@
         <v>7.06</v>
       </c>
       <c r="D95" t="n">
-        <v>7.06</v>
+        <v>7.32</v>
       </c>
       <c r="E95" t="n">
         <v>-0.26</v>
@@ -12612,7 +12620,7 @@
         <v>6.75</v>
       </c>
       <c r="D96" t="n">
-        <v>6.75</v>
+        <v>7.73</v>
       </c>
       <c r="E96" t="n">
         <v>-0.98</v>
@@ -12715,7 +12723,9 @@
         <v>2023</v>
       </c>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>8.380000000000001</v>
+      </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
@@ -12773,10 +12783,10 @@
         <v>2000</v>
       </c>
       <c r="C98" t="n">
-        <v>12.1</v>
+        <v>9.9</v>
       </c>
       <c r="D98" t="n">
-        <v>9.9</v>
+        <v>5.5</v>
       </c>
       <c r="E98" t="n">
         <v>4.4</v>
@@ -12895,10 +12905,10 @@
         <v>2001</v>
       </c>
       <c r="C99" t="n">
-        <v>10.8</v>
+        <v>10.77</v>
       </c>
       <c r="D99" t="n">
-        <v>10.77</v>
+        <v>5.79</v>
       </c>
       <c r="E99" t="n">
         <v>4.98</v>
@@ -13014,7 +13024,7 @@
         <v>9.6</v>
       </c>
       <c r="D100" t="n">
-        <v>9.6</v>
+        <v>5.92</v>
       </c>
       <c r="E100" t="n">
         <v>3.68</v>
@@ -13131,10 +13141,10 @@
         <v>2003</v>
       </c>
       <c r="C101" t="n">
-        <v>9.199999999999999</v>
+        <v>9.24</v>
       </c>
       <c r="D101" t="n">
-        <v>9.24</v>
+        <v>6.17</v>
       </c>
       <c r="E101" t="n">
         <v>3.07</v>
@@ -13251,10 +13261,10 @@
         <v>2004</v>
       </c>
       <c r="C102" t="n">
-        <v>9.5</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>9.529999999999999</v>
+        <v>5.98</v>
       </c>
       <c r="E102" t="n">
         <v>3.55</v>
@@ -13371,10 +13381,10 @@
         <v>2005</v>
       </c>
       <c r="C103" t="n">
-        <v>10.1</v>
+        <v>10.08</v>
       </c>
       <c r="D103" t="n">
-        <v>10.08</v>
+        <v>5.46</v>
       </c>
       <c r="E103" t="n">
         <v>4.62</v>
@@ -13495,10 +13505,10 @@
         <v>2006</v>
       </c>
       <c r="C104" t="n">
-        <v>9.9</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>9.869999999999999</v>
+        <v>5.91</v>
       </c>
       <c r="E104" t="n">
         <v>3.96</v>
@@ -13623,10 +13633,10 @@
         <v>2007</v>
       </c>
       <c r="C105" t="n">
-        <v>10.2</v>
+        <v>10.21</v>
       </c>
       <c r="D105" t="n">
-        <v>10.21</v>
+        <v>5.73</v>
       </c>
       <c r="E105" t="n">
         <v>4.48</v>
@@ -13749,10 +13759,10 @@
         <v>2008</v>
       </c>
       <c r="C106" t="n">
-        <v>9.800000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="D106" t="n">
-        <v>9.81</v>
+        <v>5.54</v>
       </c>
       <c r="E106" t="n">
         <v>4.27</v>
@@ -13879,10 +13889,10 @@
         <v>2009</v>
       </c>
       <c r="C107" t="n">
-        <v>9.6</v>
+        <v>9.57</v>
       </c>
       <c r="D107" t="n">
-        <v>9.57</v>
+        <v>5.61</v>
       </c>
       <c r="E107" t="n">
         <v>3.96</v>
@@ -14012,7 +14022,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>9.300000000000001</v>
+        <v>5.54</v>
       </c>
       <c r="E108" t="n">
         <v>3.76</v>
@@ -14145,10 +14155,10 @@
         <v>2011</v>
       </c>
       <c r="C109" t="n">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="D109" t="n">
-        <v>8.94</v>
+        <v>5.43</v>
       </c>
       <c r="E109" t="n">
         <v>3.51</v>
@@ -14285,10 +14295,10 @@
         <v>2012</v>
       </c>
       <c r="C110" t="n">
-        <v>9.199999999999999</v>
+        <v>9.17</v>
       </c>
       <c r="D110" t="n">
-        <v>9.17</v>
+        <v>5.52</v>
       </c>
       <c r="E110" t="n">
         <v>3.65</v>
@@ -14425,10 +14435,10 @@
         <v>2013</v>
       </c>
       <c r="C111" t="n">
-        <v>9</v>
+        <v>8.98</v>
       </c>
       <c r="D111" t="n">
-        <v>8.98</v>
+        <v>5.62</v>
       </c>
       <c r="E111" t="n">
         <v>3.36</v>
@@ -14565,10 +14575,10 @@
         <v>2014</v>
       </c>
       <c r="C112" t="n">
-        <v>9.300000000000001</v>
+        <v>9.31</v>
       </c>
       <c r="D112" t="n">
-        <v>9.31</v>
+        <v>5.75</v>
       </c>
       <c r="E112" t="n">
         <v>3.56</v>
@@ -14703,10 +14713,10 @@
         <v>2015</v>
       </c>
       <c r="C113" t="n">
-        <v>7.7</v>
+        <v>7.72</v>
       </c>
       <c r="D113" t="n">
-        <v>7.72</v>
+        <v>5.32</v>
       </c>
       <c r="E113" t="n">
         <v>2.4</v>
@@ -14841,10 +14851,10 @@
         <v>2016</v>
       </c>
       <c r="C114" t="n">
-        <v>9</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>9.029999999999999</v>
+        <v>5.69</v>
       </c>
       <c r="E114" t="n">
         <v>3.34</v>
@@ -14981,10 +14991,10 @@
         <v>2017</v>
       </c>
       <c r="C115" t="n">
-        <v>9.5</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>9.470000000000001</v>
+        <v>5.74</v>
       </c>
       <c r="E115" t="n">
         <v>3.73</v>
@@ -15117,10 +15127,10 @@
         <v>2018</v>
       </c>
       <c r="C116" t="n">
-        <v>8.4</v>
+        <v>8.35</v>
       </c>
       <c r="D116" t="n">
-        <v>8.35</v>
+        <v>5.95</v>
       </c>
       <c r="E116" t="n">
         <v>2.4</v>
@@ -15249,10 +15259,10 @@
         <v>2019</v>
       </c>
       <c r="C117" t="n">
-        <v>8.199999999999999</v>
+        <v>8.23</v>
       </c>
       <c r="D117" t="n">
-        <v>8.23</v>
+        <v>5.66</v>
       </c>
       <c r="E117" t="n">
         <v>2.57</v>
@@ -15388,7 +15398,7 @@
         <v>7.2</v>
       </c>
       <c r="D118" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="E118" t="n">
         <v>-0.1</v>
@@ -15519,10 +15529,10 @@
         <v>2021</v>
       </c>
       <c r="C119" t="n">
-        <v>6.3</v>
+        <v>6.26</v>
       </c>
       <c r="D119" t="n">
-        <v>6.26</v>
+        <v>7.54</v>
       </c>
       <c r="E119" t="n">
         <v>-1.28</v>
@@ -15643,10 +15653,10 @@
         <v>2022</v>
       </c>
       <c r="C120" t="n">
-        <v>5.6</v>
+        <v>5.58</v>
       </c>
       <c r="D120" t="n">
-        <v>5.58</v>
+        <v>7.83</v>
       </c>
       <c r="E120" t="n">
         <v>-2.25</v>
@@ -15755,7 +15765,9 @@
         <v>2023</v>
       </c>
       <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
+      <c r="D121" t="n">
+        <v>8.42</v>
+      </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
@@ -15816,7 +15828,7 @@
         <v>10.7</v>
       </c>
       <c r="D122" t="n">
-        <v>10.7</v>
+        <v>6.7</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -15936,7 +15948,7 @@
         <v>7.74</v>
       </c>
       <c r="D123" t="n">
-        <v>7.74</v>
+        <v>6.1</v>
       </c>
       <c r="E123" t="n">
         <v>1.64</v>
@@ -16049,10 +16061,10 @@
         <v>2002</v>
       </c>
       <c r="C124" t="n">
-        <v>7.5</v>
+        <v>7.38</v>
       </c>
       <c r="D124" t="n">
-        <v>7.38</v>
+        <v>6.04</v>
       </c>
       <c r="E124" t="n">
         <v>1.34</v>
@@ -16172,7 +16184,7 @@
         <v>6.9</v>
       </c>
       <c r="D125" t="n">
-        <v>6.9</v>
+        <v>5.83</v>
       </c>
       <c r="E125" t="n">
         <v>1.07</v>
@@ -16289,10 +16301,10 @@
         <v>2004</v>
       </c>
       <c r="C126" t="n">
-        <v>7.7</v>
+        <v>6.51</v>
       </c>
       <c r="D126" t="n">
-        <v>6.51</v>
+        <v>5.6</v>
       </c>
       <c r="E126" t="n">
         <v>0.91</v>
@@ -16409,10 +16421,10 @@
         <v>2005</v>
       </c>
       <c r="C127" t="n">
-        <v>7.8</v>
+        <v>7.01</v>
       </c>
       <c r="D127" t="n">
-        <v>7.01</v>
+        <v>6.04</v>
       </c>
       <c r="E127" t="n">
         <v>0.97</v>
@@ -16533,10 +16545,10 @@
         <v>2006</v>
       </c>
       <c r="C128" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="D128" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="E128" t="n">
         <v>1.1</v>
@@ -16661,10 +16673,10 @@
         <v>2007</v>
       </c>
       <c r="C129" t="n">
-        <v>8.199999999999999</v>
+        <v>6.89</v>
       </c>
       <c r="D129" t="n">
-        <v>6.89</v>
+        <v>5.36</v>
       </c>
       <c r="E129" t="n">
         <v>1.53</v>
@@ -16787,10 +16799,10 @@
         <v>2008</v>
       </c>
       <c r="C130" t="n">
-        <v>7.9</v>
+        <v>6.32</v>
       </c>
       <c r="D130" t="n">
-        <v>6.32</v>
+        <v>5.22</v>
       </c>
       <c r="E130" t="n">
         <v>1.1</v>
@@ -16917,10 +16929,10 @@
         <v>2009</v>
       </c>
       <c r="C131" t="n">
-        <v>7.6</v>
+        <v>6.06</v>
       </c>
       <c r="D131" t="n">
-        <v>6.06</v>
+        <v>5.09</v>
       </c>
       <c r="E131" t="n">
         <v>0.97</v>
@@ -17047,10 +17059,10 @@
         <v>2010</v>
       </c>
       <c r="C132" t="n">
-        <v>8.800000000000001</v>
+        <v>6.68</v>
       </c>
       <c r="D132" t="n">
-        <v>6.68</v>
+        <v>6.26</v>
       </c>
       <c r="E132" t="n">
         <v>0.42</v>
@@ -17183,10 +17195,10 @@
         <v>2011</v>
       </c>
       <c r="C133" t="n">
-        <v>7.4</v>
+        <v>5.71</v>
       </c>
       <c r="D133" t="n">
-        <v>5.71</v>
+        <v>6.05</v>
       </c>
       <c r="E133" t="n">
         <v>-0.34</v>
@@ -17323,10 +17335,10 @@
         <v>2012</v>
       </c>
       <c r="C134" t="n">
-        <v>8.1</v>
+        <v>6.15</v>
       </c>
       <c r="D134" t="n">
-        <v>6.15</v>
+        <v>6.54</v>
       </c>
       <c r="E134" t="n">
         <v>-0.39</v>
@@ -17463,10 +17475,10 @@
         <v>2013</v>
       </c>
       <c r="C135" t="n">
-        <v>7.6</v>
+        <v>6.09</v>
       </c>
       <c r="D135" t="n">
-        <v>6.09</v>
+        <v>6.12</v>
       </c>
       <c r="E135" t="n">
         <v>-0.03</v>
@@ -17599,10 +17611,10 @@
         <v>2014</v>
       </c>
       <c r="C136" t="n">
-        <v>9</v>
+        <v>6.49</v>
       </c>
       <c r="D136" t="n">
-        <v>6.49</v>
+        <v>6.23</v>
       </c>
       <c r="E136" t="n">
         <v>0.26</v>
@@ -17733,10 +17745,10 @@
         <v>2015</v>
       </c>
       <c r="C137" t="n">
-        <v>7</v>
+        <v>6.17</v>
       </c>
       <c r="D137" t="n">
-        <v>6.17</v>
+        <v>6.59</v>
       </c>
       <c r="E137" t="n">
         <v>-0.42</v>
@@ -17871,10 +17883,10 @@
         <v>2016</v>
       </c>
       <c r="C138" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="D138" t="n">
-        <v>6.6</v>
+        <v>6.78</v>
       </c>
       <c r="E138" t="n">
         <v>-0.18</v>
@@ -18011,10 +18023,10 @@
         <v>2017</v>
       </c>
       <c r="C139" t="n">
-        <v>8.1</v>
+        <v>6.49</v>
       </c>
       <c r="D139" t="n">
-        <v>6.49</v>
+        <v>6.93</v>
       </c>
       <c r="E139" t="n">
         <v>-0.44</v>
@@ -18147,10 +18159,10 @@
         <v>2018</v>
       </c>
       <c r="C140" t="n">
-        <v>7</v>
+        <v>6.39</v>
       </c>
       <c r="D140" t="n">
-        <v>6.39</v>
+        <v>7.39</v>
       </c>
       <c r="E140" t="n">
         <v>-1</v>
@@ -18281,10 +18293,10 @@
         <v>2019</v>
       </c>
       <c r="C141" t="n">
-        <v>6.9</v>
+        <v>6.45</v>
       </c>
       <c r="D141" t="n">
-        <v>6.45</v>
+        <v>7.25</v>
       </c>
       <c r="E141" t="n">
         <v>-0.8</v>
@@ -18417,10 +18429,10 @@
         <v>2020</v>
       </c>
       <c r="C142" t="n">
-        <v>5.8</v>
+        <v>5.16</v>
       </c>
       <c r="D142" t="n">
-        <v>5.16</v>
+        <v>8.59</v>
       </c>
       <c r="E142" t="n">
         <v>-2.49</v>
@@ -18551,10 +18563,10 @@
         <v>2021</v>
       </c>
       <c r="C143" t="n">
-        <v>4.8</v>
+        <v>4.71</v>
       </c>
       <c r="D143" t="n">
-        <v>4.71</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="E143" t="n">
         <v>-4.18</v>
@@ -18678,7 +18690,7 @@
         <v>4.08</v>
       </c>
       <c r="D144" t="n">
-        <v>4.08</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="E144" t="n">
         <v>-4.96</v>
@@ -18839,10 +18851,10 @@
         <v>2000</v>
       </c>
       <c r="C146" t="n">
-        <v>10.31</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="D146" t="n">
-        <v>9.529999999999999</v>
+        <v>5.85</v>
       </c>
       <c r="E146" t="n">
         <v>4.15</v>
@@ -18962,7 +18974,7 @@
         <v>8.76</v>
       </c>
       <c r="D147" t="n">
-        <v>8.76</v>
+        <v>5.38</v>
       </c>
       <c r="E147" t="n">
         <v>3.38</v>
@@ -19078,7 +19090,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="D148" t="n">
-        <v>8.300000000000001</v>
+        <v>5.11</v>
       </c>
       <c r="E148" t="n">
         <v>3.19</v>
@@ -19198,7 +19210,7 @@
         <v>7.25</v>
       </c>
       <c r="D149" t="n">
-        <v>7.25</v>
+        <v>5.64</v>
       </c>
       <c r="E149" t="n">
         <v>1.61</v>
@@ -19318,7 +19330,7 @@
         <v>7.39</v>
       </c>
       <c r="D150" t="n">
-        <v>7.39</v>
+        <v>5.63</v>
       </c>
       <c r="E150" t="n">
         <v>1.76</v>
@@ -19438,7 +19450,7 @@
         <v>7.89</v>
       </c>
       <c r="D151" t="n">
-        <v>7.89</v>
+        <v>5.32</v>
       </c>
       <c r="E151" t="n">
         <v>2.57</v>
@@ -19560,7 +19572,7 @@
         <v>7.67</v>
       </c>
       <c r="D152" t="n">
-        <v>7.67</v>
+        <v>5</v>
       </c>
       <c r="E152" t="n">
         <v>2.67</v>
@@ -19686,7 +19698,7 @@
         <v>7.55</v>
       </c>
       <c r="D153" t="n">
-        <v>7.55</v>
+        <v>5.05</v>
       </c>
       <c r="E153" t="n">
         <v>2.5</v>
@@ -19812,7 +19824,7 @@
         <v>6.65</v>
       </c>
       <c r="D154" t="n">
-        <v>6.65</v>
+        <v>5.04</v>
       </c>
       <c r="E154" t="n">
         <v>1.61</v>
@@ -19942,7 +19954,7 @@
         <v>6.69</v>
       </c>
       <c r="D155" t="n">
-        <v>6.69</v>
+        <v>4.74</v>
       </c>
       <c r="E155" t="n">
         <v>1.95</v>
@@ -20070,7 +20082,7 @@
         <v>7.91</v>
       </c>
       <c r="D156" t="n">
-        <v>7.91</v>
+        <v>5.88</v>
       </c>
       <c r="E156" t="n">
         <v>2.03</v>
@@ -20206,7 +20218,7 @@
         <v>6.53</v>
       </c>
       <c r="D157" t="n">
-        <v>6.53</v>
+        <v>5.51</v>
       </c>
       <c r="E157" t="n">
         <v>1.02</v>
@@ -20346,7 +20358,7 @@
         <v>5.73</v>
       </c>
       <c r="D158" t="n">
-        <v>5.73</v>
+        <v>5.37</v>
       </c>
       <c r="E158" t="n">
         <v>0.36</v>
@@ -20486,7 +20498,7 @@
         <v>5.36</v>
       </c>
       <c r="D159" t="n">
-        <v>5.36</v>
+        <v>5.04</v>
       </c>
       <c r="E159" t="n">
         <v>0.32</v>
@@ -20622,7 +20634,7 @@
         <v>6.62</v>
       </c>
       <c r="D160" t="n">
-        <v>6.62</v>
+        <v>6.22</v>
       </c>
       <c r="E160" t="n">
         <v>0.4</v>
@@ -20756,7 +20768,7 @@
         <v>5.87</v>
       </c>
       <c r="D161" t="n">
-        <v>5.87</v>
+        <v>5.53</v>
       </c>
       <c r="E161" t="n">
         <v>0.34</v>
@@ -20894,7 +20906,7 @@
         <v>5.55</v>
       </c>
       <c r="D162" t="n">
-        <v>5.55</v>
+        <v>5.6</v>
       </c>
       <c r="E162" t="n">
         <v>-0.05</v>
@@ -21034,7 +21046,7 @@
         <v>6.76</v>
       </c>
       <c r="D163" t="n">
-        <v>6.76</v>
+        <v>6.5</v>
       </c>
       <c r="E163" t="n">
         <v>0.26</v>
@@ -21168,7 +21180,7 @@
         <v>6.62</v>
       </c>
       <c r="D164" t="n">
-        <v>6.62</v>
+        <v>6.26</v>
       </c>
       <c r="E164" t="n">
         <v>0.36</v>
@@ -21300,7 +21312,7 @@
         <v>6.05</v>
       </c>
       <c r="D165" t="n">
-        <v>6.05</v>
+        <v>6.9</v>
       </c>
       <c r="E165" t="n">
         <v>-0.85</v>
@@ -21436,7 +21448,7 @@
         <v>4.84</v>
       </c>
       <c r="D166" t="n">
-        <v>4.84</v>
+        <v>7.81</v>
       </c>
       <c r="E166" t="n">
         <v>-2.97</v>
@@ -21570,7 +21582,7 @@
         <v>4.7</v>
       </c>
       <c r="D167" t="n">
-        <v>4.7</v>
+        <v>8.08</v>
       </c>
       <c r="E167" t="n">
         <v>-3.38</v>
@@ -21689,10 +21701,10 @@
         <v>2022</v>
       </c>
       <c r="C168" t="n">
-        <v>4.33</v>
+        <v>4.32</v>
       </c>
       <c r="D168" t="n">
-        <v>4.32</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="E168" t="n">
         <v>-4.07</v>
@@ -21856,7 +21868,7 @@
         <v>9.43</v>
       </c>
       <c r="D170" t="n">
-        <v>9.43</v>
+        <v>5.5</v>
       </c>
       <c r="E170" t="n">
         <v>3.93</v>
@@ -21980,7 +21992,7 @@
         <v>8.48</v>
       </c>
       <c r="D171" t="n">
-        <v>8.48</v>
+        <v>5.49</v>
       </c>
       <c r="E171" t="n">
         <v>2.99</v>
@@ -22100,7 +22112,7 @@
         <v>7.98</v>
       </c>
       <c r="D172" t="n">
-        <v>7.98</v>
+        <v>5.44</v>
       </c>
       <c r="E172" t="n">
         <v>2.54</v>
@@ -22224,7 +22236,7 @@
         <v>7.48</v>
       </c>
       <c r="D173" t="n">
-        <v>7.48</v>
+        <v>5.45</v>
       </c>
       <c r="E173" t="n">
         <v>2.03</v>
@@ -22348,7 +22360,7 @@
         <v>7.27</v>
       </c>
       <c r="D174" t="n">
-        <v>7.27</v>
+        <v>5.45</v>
       </c>
       <c r="E174" t="n">
         <v>1.82</v>
@@ -22472,7 +22484,7 @@
         <v>7.87</v>
       </c>
       <c r="D175" t="n">
-        <v>7.87</v>
+        <v>5.2</v>
       </c>
       <c r="E175" t="n">
         <v>2.67</v>
@@ -22596,7 +22608,7 @@
         <v>7.57</v>
       </c>
       <c r="D176" t="n">
-        <v>7.57</v>
+        <v>5.18</v>
       </c>
       <c r="E176" t="n">
         <v>2.39</v>
@@ -22724,7 +22736,7 @@
         <v>7.88</v>
       </c>
       <c r="D177" t="n">
-        <v>7.88</v>
+        <v>5.39</v>
       </c>
       <c r="E177" t="n">
         <v>2.49</v>
@@ -22850,7 +22862,7 @@
         <v>7.91</v>
       </c>
       <c r="D178" t="n">
-        <v>7.91</v>
+        <v>5.68</v>
       </c>
       <c r="E178" t="n">
         <v>2.23</v>
@@ -22982,7 +22994,7 @@
         <v>7.48</v>
       </c>
       <c r="D179" t="n">
-        <v>7.48</v>
+        <v>5.42</v>
       </c>
       <c r="E179" t="n">
         <v>2.06</v>
@@ -23114,7 +23126,7 @@
         <v>7.35</v>
       </c>
       <c r="D180" t="n">
-        <v>7.35</v>
+        <v>5.03</v>
       </c>
       <c r="E180" t="n">
         <v>2.32</v>
@@ -23250,7 +23262,7 @@
         <v>6.99</v>
       </c>
       <c r="D181" t="n">
-        <v>6.99</v>
+        <v>5.92</v>
       </c>
       <c r="E181" t="n">
         <v>1.07</v>
@@ -23390,7 +23402,7 @@
         <v>7.3</v>
       </c>
       <c r="D182" t="n">
-        <v>7.3</v>
+        <v>6.03</v>
       </c>
       <c r="E182" t="n">
         <v>1.27</v>
@@ -23530,7 +23542,7 @@
         <v>6.86</v>
       </c>
       <c r="D183" t="n">
-        <v>6.86</v>
+        <v>6.08</v>
       </c>
       <c r="E183" t="n">
         <v>0.78</v>
@@ -23666,7 +23678,7 @@
         <v>7.37</v>
       </c>
       <c r="D184" t="n">
-        <v>7.37</v>
+        <v>6.46</v>
       </c>
       <c r="E184" t="n">
         <v>0.91</v>
@@ -23800,7 +23812,7 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="E185" t="n">
         <v>-0.6</v>
@@ -23938,7 +23950,7 @@
         <v>6.12</v>
       </c>
       <c r="D186" t="n">
-        <v>6.12</v>
+        <v>6.61</v>
       </c>
       <c r="E186" t="n">
         <v>-0.49</v>
@@ -24078,7 +24090,7 @@
         <v>6.22</v>
       </c>
       <c r="D187" t="n">
-        <v>6.22</v>
+        <v>6.63</v>
       </c>
       <c r="E187" t="n">
         <v>-0.41</v>
@@ -24214,7 +24226,7 @@
         <v>5.98</v>
       </c>
       <c r="D188" t="n">
-        <v>5.98</v>
+        <v>6.67</v>
       </c>
       <c r="E188" t="n">
         <v>-0.6899999999999999</v>
@@ -24348,7 +24360,7 @@
         <v>5.73</v>
       </c>
       <c r="D189" t="n">
-        <v>5.73</v>
+        <v>6.74</v>
       </c>
       <c r="E189" t="n">
         <v>-1.01</v>
@@ -24484,7 +24496,7 @@
         <v>3.75</v>
       </c>
       <c r="D190" t="n">
-        <v>3.75</v>
+        <v>8.23</v>
       </c>
       <c r="E190" t="n">
         <v>-4.48</v>
@@ -24618,7 +24630,7 @@
         <v>3.59</v>
       </c>
       <c r="D191" t="n">
-        <v>3.59</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E191" t="n">
         <v>-5.11</v>
@@ -24742,7 +24754,7 @@
         <v>3.34</v>
       </c>
       <c r="D192" t="n">
-        <v>3.34</v>
+        <v>9.09</v>
       </c>
       <c r="E192" t="n">
         <v>-5.75</v>
@@ -24905,10 +24917,10 @@
         <v>2000</v>
       </c>
       <c r="C194" t="n">
-        <v>5.27</v>
+        <v>5.3</v>
       </c>
       <c r="D194" t="n">
-        <v>5.3</v>
+        <v>7.2</v>
       </c>
       <c r="E194" t="n">
         <v>-1.9</v>
@@ -25024,7 +25036,7 @@
         <v>5.02</v>
       </c>
       <c r="D195" t="n">
-        <v>5.02</v>
+        <v>5.97</v>
       </c>
       <c r="E195" t="n">
         <v>-0.95</v>
@@ -25134,7 +25146,7 @@
         <v>5.41</v>
       </c>
       <c r="D196" t="n">
-        <v>5.41</v>
+        <v>5.95</v>
       </c>
       <c r="E196" t="n">
         <v>-0.54</v>
@@ -25250,7 +25262,7 @@
         <v>4.85</v>
       </c>
       <c r="D197" t="n">
-        <v>4.85</v>
+        <v>6.2</v>
       </c>
       <c r="E197" t="n">
         <v>-1.35</v>
@@ -25480,7 +25492,7 @@
         <v>7.04</v>
       </c>
       <c r="D199" t="n">
-        <v>7.04</v>
+        <v>6.08</v>
       </c>
       <c r="E199" t="n">
         <v>0.96</v>
@@ -25600,7 +25612,7 @@
         <v>7.47</v>
       </c>
       <c r="D200" t="n">
-        <v>7.47</v>
+        <v>5.89</v>
       </c>
       <c r="E200" t="n">
         <v>1.58</v>
@@ -25724,7 +25736,7 @@
         <v>9.07</v>
       </c>
       <c r="D201" t="n">
-        <v>9.07</v>
+        <v>6.03</v>
       </c>
       <c r="E201" t="n">
         <v>3.04</v>
@@ -25848,7 +25860,7 @@
         <v>8.890000000000001</v>
       </c>
       <c r="D202" t="n">
-        <v>8.890000000000001</v>
+        <v>6.17</v>
       </c>
       <c r="E202" t="n">
         <v>2.72</v>
@@ -25976,7 +25988,7 @@
         <v>8.640000000000001</v>
       </c>
       <c r="D203" t="n">
-        <v>8.640000000000001</v>
+        <v>5.94</v>
       </c>
       <c r="E203" t="n">
         <v>2.7</v>
@@ -26100,7 +26112,7 @@
         <v>7.05</v>
       </c>
       <c r="D204" t="n">
-        <v>7.05</v>
+        <v>5.07</v>
       </c>
       <c r="E204" t="n">
         <v>1.98</v>
@@ -26234,7 +26246,7 @@
         <v>6.97</v>
       </c>
       <c r="D205" t="n">
-        <v>6.97</v>
+        <v>5.1</v>
       </c>
       <c r="E205" t="n">
         <v>1.87</v>
@@ -26374,7 +26386,7 @@
         <v>9.56</v>
       </c>
       <c r="D206" t="n">
-        <v>9.56</v>
+        <v>5.36</v>
       </c>
       <c r="E206" t="n">
         <v>4.2</v>
@@ -26514,7 +26526,7 @@
         <v>8.18</v>
       </c>
       <c r="D207" t="n">
-        <v>8.18</v>
+        <v>5.24</v>
       </c>
       <c r="E207" t="n">
         <v>2.94</v>
@@ -26650,7 +26662,7 @@
         <v>8.35</v>
       </c>
       <c r="D208" t="n">
-        <v>8.35</v>
+        <v>5.21</v>
       </c>
       <c r="E208" t="n">
         <v>3.14</v>
@@ -26784,7 +26796,7 @@
         <v>7.52</v>
       </c>
       <c r="D209" t="n">
-        <v>7.52</v>
+        <v>5.07</v>
       </c>
       <c r="E209" t="n">
         <v>2.45</v>
@@ -26922,7 +26934,7 @@
         <v>9</v>
       </c>
       <c r="D210" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -27062,7 +27074,7 @@
         <v>8.1</v>
       </c>
       <c r="D211" t="n">
-        <v>8.1</v>
+        <v>5.3</v>
       </c>
       <c r="E211" t="n">
         <v>2.8</v>
@@ -27200,7 +27212,7 @@
         <v>7.2</v>
       </c>
       <c r="D212" t="n">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="E212" t="n">
         <v>1.8</v>
@@ -27336,7 +27348,7 @@
         <v>7</v>
       </c>
       <c r="D213" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="E213" t="n">
         <v>1.5</v>
@@ -27472,7 +27484,7 @@
         <v>5.02</v>
       </c>
       <c r="D214" t="n">
-        <v>5.02</v>
+        <v>5.58</v>
       </c>
       <c r="E214" t="n">
         <v>-0.5600000000000001</v>
@@ -27606,7 +27618,7 @@
         <v>4.67</v>
       </c>
       <c r="D215" t="n">
-        <v>4.67</v>
+        <v>5.59</v>
       </c>
       <c r="E215" t="n">
         <v>-0.92</v>
@@ -27726,9 +27738,11 @@
       <c r="B216" t="n">
         <v>2022</v>
       </c>
-      <c r="C216" t="inlineStr"/>
+      <c r="C216" t="n">
+        <v>4.35</v>
+      </c>
       <c r="D216" t="n">
-        <v>4.35</v>
+        <v>5.96</v>
       </c>
       <c r="E216" t="n">
         <v>-1.61</v>
@@ -27831,7 +27845,9 @@
         <v>2023</v>
       </c>
       <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr"/>
+      <c r="D217" t="n">
+        <v>6.37</v>
+      </c>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
@@ -27894,7 +27910,7 @@
         <v>9.08</v>
       </c>
       <c r="D218" t="n">
-        <v>9.08</v>
+        <v>6.52</v>
       </c>
       <c r="E218" t="n">
         <v>2.56</v>
@@ -28016,7 +28032,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="D219" t="n">
-        <v>9.029999999999999</v>
+        <v>6.62</v>
       </c>
       <c r="E219" t="n">
         <v>2.41</v>
@@ -28130,7 +28146,7 @@
         <v>9.17</v>
       </c>
       <c r="D220" t="n">
-        <v>9.17</v>
+        <v>6.99</v>
       </c>
       <c r="E220" t="n">
         <v>2.18</v>
@@ -28250,7 +28266,7 @@
         <v>9.039999999999999</v>
       </c>
       <c r="D221" t="n">
-        <v>9.039999999999999</v>
+        <v>7.03</v>
       </c>
       <c r="E221" t="n">
         <v>2.01</v>
@@ -28370,7 +28386,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="D222" t="n">
-        <v>9.449999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="E222" t="n">
         <v>2.25</v>
@@ -28490,7 +28506,7 @@
         <v>9.24</v>
       </c>
       <c r="D223" t="n">
-        <v>9.24</v>
+        <v>7.03</v>
       </c>
       <c r="E223" t="n">
         <v>2.21</v>
@@ -28614,7 +28630,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="D224" t="n">
-        <v>9.359999999999999</v>
+        <v>7.08</v>
       </c>
       <c r="E224" t="n">
         <v>2.28</v>
@@ -28742,7 +28758,7 @@
         <v>9.369999999999999</v>
       </c>
       <c r="D225" t="n">
-        <v>9.369999999999999</v>
+        <v>7.07</v>
       </c>
       <c r="E225" t="n">
         <v>2.3</v>
@@ -28868,7 +28884,7 @@
         <v>9.34</v>
       </c>
       <c r="D226" t="n">
-        <v>9.34</v>
+        <v>7.04</v>
       </c>
       <c r="E226" t="n">
         <v>2.3</v>
@@ -28998,7 +29014,7 @@
         <v>9.550000000000001</v>
       </c>
       <c r="D227" t="n">
-        <v>9.550000000000001</v>
+        <v>6.99</v>
       </c>
       <c r="E227" t="n">
         <v>2.56</v>
@@ -29128,7 +29144,7 @@
         <v>9.73</v>
       </c>
       <c r="D228" t="n">
-        <v>9.73</v>
+        <v>6.88</v>
       </c>
       <c r="E228" t="n">
         <v>2.85</v>
@@ -29264,7 +29280,7 @@
         <v>9.59</v>
       </c>
       <c r="D229" t="n">
-        <v>9.59</v>
+        <v>6.98</v>
       </c>
       <c r="E229" t="n">
         <v>2.61</v>
@@ -29404,7 +29420,7 @@
         <v>9.44</v>
       </c>
       <c r="D230" t="n">
-        <v>9.44</v>
+        <v>6.99</v>
       </c>
       <c r="E230" t="n">
         <v>2.45</v>
@@ -29544,7 +29560,7 @@
         <v>9.44</v>
       </c>
       <c r="D231" t="n">
-        <v>9.44</v>
+        <v>7.01</v>
       </c>
       <c r="E231" t="n">
         <v>2.43</v>
@@ -29680,7 +29696,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="D232" t="n">
-        <v>9.449999999999999</v>
+        <v>7.02</v>
       </c>
       <c r="E232" t="n">
         <v>2.43</v>
@@ -29814,7 +29830,7 @@
         <v>9.050000000000001</v>
       </c>
       <c r="D233" t="n">
-        <v>9.050000000000001</v>
+        <v>7.03</v>
       </c>
       <c r="E233" t="n">
         <v>2.02</v>
@@ -29954,7 +29970,7 @@
         <v>9.76</v>
       </c>
       <c r="D234" t="n">
-        <v>9.76</v>
+        <v>7.03</v>
       </c>
       <c r="E234" t="n">
         <v>2.73</v>
@@ -30094,7 +30110,7 @@
         <v>9.710000000000001</v>
       </c>
       <c r="D235" t="n">
-        <v>9.710000000000001</v>
+        <v>7.03</v>
       </c>
       <c r="E235" t="n">
         <v>2.68</v>
@@ -30230,7 +30246,7 @@
         <v>9.32</v>
       </c>
       <c r="D236" t="n">
-        <v>9.32</v>
+        <v>7.03</v>
       </c>
       <c r="E236" t="n">
         <v>2.29</v>
@@ -30364,7 +30380,7 @@
         <v>9.119999999999999</v>
       </c>
       <c r="D237" t="n">
-        <v>9.119999999999999</v>
+        <v>7.04</v>
       </c>
       <c r="E237" t="n">
         <v>2.08</v>
@@ -30497,10 +30513,10 @@
         <v>2020</v>
       </c>
       <c r="C238" t="n">
-        <v>6.65</v>
+        <v>6.66</v>
       </c>
       <c r="D238" t="n">
-        <v>6.66</v>
+        <v>6.49</v>
       </c>
       <c r="E238" t="n">
         <v>0.17</v>
@@ -30632,7 +30648,7 @@
         <v>5.65</v>
       </c>
       <c r="D239" t="n">
-        <v>5.65</v>
+        <v>6.77</v>
       </c>
       <c r="E239" t="n">
         <v>-1.12</v>
@@ -30754,7 +30770,7 @@
         <v>5.23</v>
       </c>
       <c r="D240" t="n">
-        <v>5.23</v>
+        <v>7.04</v>
       </c>
       <c r="E240" t="n">
         <v>-1.81</v>
@@ -30857,7 +30873,9 @@
         <v>2023</v>
       </c>
       <c r="C241" t="inlineStr"/>
-      <c r="D241" t="inlineStr"/>
+      <c r="D241" t="n">
+        <v>7.6</v>
+      </c>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr"/>
@@ -30919,10 +30937,10 @@
         <v>2000</v>
       </c>
       <c r="C242" t="n">
-        <v>13.9</v>
+        <v>10.3</v>
       </c>
       <c r="D242" t="n">
-        <v>10.3</v>
+        <v>6.13</v>
       </c>
       <c r="E242" t="n">
         <v>4.17</v>
@@ -31040,7 +31058,7 @@
         <v>10.02</v>
       </c>
       <c r="D243" t="n">
-        <v>10.02</v>
+        <v>6.25</v>
       </c>
       <c r="E243" t="n">
         <v>3.77</v>
@@ -31152,7 +31170,7 @@
         <v>9.98</v>
       </c>
       <c r="D244" t="n">
-        <v>9.98</v>
+        <v>6.19</v>
       </c>
       <c r="E244" t="n">
         <v>3.79</v>
@@ -31270,7 +31288,7 @@
         <v>9.66</v>
       </c>
       <c r="D245" t="n">
-        <v>9.66</v>
+        <v>6.38</v>
       </c>
       <c r="E245" t="n">
         <v>3.28</v>
@@ -31388,7 +31406,7 @@
         <v>10.71</v>
       </c>
       <c r="D246" t="n">
-        <v>10.71</v>
+        <v>5.76</v>
       </c>
       <c r="E246" t="n">
         <v>4.95</v>
@@ -31506,7 +31524,7 @@
         <v>11.1</v>
       </c>
       <c r="D247" t="n">
-        <v>11.1</v>
+        <v>6.08</v>
       </c>
       <c r="E247" t="n">
         <v>5.02</v>
@@ -31626,7 +31644,7 @@
         <v>10.29</v>
       </c>
       <c r="D248" t="n">
-        <v>10.29</v>
+        <v>5.42</v>
       </c>
       <c r="E248" t="n">
         <v>4.87</v>
@@ -31752,7 +31770,7 @@
         <v>10.38</v>
       </c>
       <c r="D249" t="n">
-        <v>10.38</v>
+        <v>5.57</v>
       </c>
       <c r="E249" t="n">
         <v>4.81</v>
@@ -31876,7 +31894,7 @@
         <v>10.2</v>
       </c>
       <c r="D250" t="n">
-        <v>10.2</v>
+        <v>5.62</v>
       </c>
       <c r="E250" t="n">
         <v>4.58</v>
@@ -32004,7 +32022,7 @@
         <v>10.22</v>
       </c>
       <c r="D251" t="n">
-        <v>10.22</v>
+        <v>5.59</v>
       </c>
       <c r="E251" t="n">
         <v>4.63</v>
@@ -32132,7 +32150,7 @@
         <v>10.27</v>
       </c>
       <c r="D252" t="n">
-        <v>10.27</v>
+        <v>5.54</v>
       </c>
       <c r="E252" t="n">
         <v>4.73</v>
@@ -32268,7 +32286,7 @@
         <v>9.470000000000001</v>
       </c>
       <c r="D253" t="n">
-        <v>9.470000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="E253" t="n">
         <v>4.07</v>
@@ -32408,7 +32426,7 @@
         <v>10.12</v>
       </c>
       <c r="D254" t="n">
-        <v>10.12</v>
+        <v>5.52</v>
       </c>
       <c r="E254" t="n">
         <v>4.6</v>
@@ -32548,7 +32566,7 @@
         <v>10.01</v>
       </c>
       <c r="D255" t="n">
-        <v>10.01</v>
+        <v>5.45</v>
       </c>
       <c r="E255" t="n">
         <v>4.56</v>
@@ -32688,7 +32706,7 @@
         <v>10.51</v>
       </c>
       <c r="D256" t="n">
-        <v>10.51</v>
+        <v>5.51</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -32822,7 +32840,7 @@
         <v>10.52</v>
       </c>
       <c r="D257" t="n">
-        <v>10.52</v>
+        <v>5.5</v>
       </c>
       <c r="E257" t="n">
         <v>5.02</v>
@@ -32960,7 +32978,7 @@
         <v>11.22</v>
       </c>
       <c r="D258" t="n">
-        <v>11.22</v>
+        <v>5.52</v>
       </c>
       <c r="E258" t="n">
         <v>5.7</v>
@@ -33100,7 +33118,7 @@
         <v>11.92</v>
       </c>
       <c r="D259" t="n">
-        <v>11.92</v>
+        <v>5.56</v>
       </c>
       <c r="E259" t="n">
         <v>6.36</v>
@@ -33236,7 +33254,7 @@
         <v>11.02</v>
       </c>
       <c r="D260" t="n">
-        <v>11.02</v>
+        <v>5.58</v>
       </c>
       <c r="E260" t="n">
         <v>5.44</v>
@@ -33370,7 +33388,7 @@
         <v>10.51</v>
       </c>
       <c r="D261" t="n">
-        <v>10.51</v>
+        <v>5.52</v>
       </c>
       <c r="E261" t="n">
         <v>4.99</v>
@@ -33506,7 +33524,7 @@
         <v>7.13</v>
       </c>
       <c r="D262" t="n">
-        <v>7.13</v>
+        <v>5.84</v>
       </c>
       <c r="E262" t="n">
         <v>0.57</v>
@@ -33638,7 +33656,7 @@
         <v>6.9</v>
       </c>
       <c r="D263" t="n">
-        <v>6.9</v>
+        <v>5.9</v>
       </c>
       <c r="E263" t="n">
         <v>1</v>
@@ -33760,7 +33778,7 @@
         <v>6.28</v>
       </c>
       <c r="D264" t="n">
-        <v>6.28</v>
+        <v>6.24</v>
       </c>
       <c r="E264" t="n">
         <v>0.04</v>
@@ -33865,7 +33883,9 @@
         <v>2023</v>
       </c>
       <c r="C265" t="inlineStr"/>
-      <c r="D265" t="inlineStr"/>
+      <c r="D265" t="n">
+        <v>6.66</v>
+      </c>
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr"/>
@@ -33923,10 +33943,10 @@
         <v>2000</v>
       </c>
       <c r="C266" t="n">
-        <v>13.06</v>
+        <v>13.4</v>
       </c>
       <c r="D266" t="n">
-        <v>13.4</v>
+        <v>5.76</v>
       </c>
       <c r="E266" t="n">
         <v>7.64</v>
@@ -34048,7 +34068,7 @@
         <v>12.46</v>
       </c>
       <c r="D267" t="n">
-        <v>12.46</v>
+        <v>5.85</v>
       </c>
       <c r="E267" t="n">
         <v>6.61</v>
@@ -34166,7 +34186,7 @@
         <v>11.2</v>
       </c>
       <c r="D268" t="n">
-        <v>11.2</v>
+        <v>5.17</v>
       </c>
       <c r="E268" t="n">
         <v>6.03</v>
@@ -34288,7 +34308,7 @@
         <v>11.15</v>
       </c>
       <c r="D269" t="n">
-        <v>11.15</v>
+        <v>5.2</v>
       </c>
       <c r="E269" t="n">
         <v>5.95</v>
@@ -34410,7 +34430,7 @@
         <v>11.62</v>
       </c>
       <c r="D270" t="n">
-        <v>11.62</v>
+        <v>5.5</v>
       </c>
       <c r="E270" t="n">
         <v>6.12</v>
@@ -34532,7 +34552,7 @@
         <v>12.43</v>
       </c>
       <c r="D271" t="n">
-        <v>12.43</v>
+        <v>6.23</v>
       </c>
       <c r="E271" t="n">
         <v>6.2</v>
@@ -34656,7 +34676,7 @@
         <v>12.6</v>
       </c>
       <c r="D272" t="n">
-        <v>12.6</v>
+        <v>6.3</v>
       </c>
       <c r="E272" t="n">
         <v>6.3</v>
@@ -34782,7 +34802,7 @@
         <v>12.75</v>
       </c>
       <c r="D273" t="n">
-        <v>12.75</v>
+        <v>6.4</v>
       </c>
       <c r="E273" t="n">
         <v>6.35</v>
@@ -34908,7 +34928,7 @@
         <v>13.05</v>
       </c>
       <c r="D274" t="n">
-        <v>13.05</v>
+        <v>6.6</v>
       </c>
       <c r="E274" t="n">
         <v>6.45</v>
@@ -35038,7 +35058,7 @@
         <v>13.07</v>
       </c>
       <c r="D275" t="n">
-        <v>13.07</v>
+        <v>6.6</v>
       </c>
       <c r="E275" t="n">
         <v>6.47</v>
@@ -35168,7 +35188,7 @@
         <v>12.7</v>
       </c>
       <c r="D276" t="n">
-        <v>12.7</v>
+        <v>5.95</v>
       </c>
       <c r="E276" t="n">
         <v>6.75</v>
@@ -35306,7 +35326,7 @@
         <v>12.23</v>
       </c>
       <c r="D277" t="n">
-        <v>12.23</v>
+        <v>5.91</v>
       </c>
       <c r="E277" t="n">
         <v>6.32</v>
@@ -35446,7 +35466,7 @@
         <v>13</v>
       </c>
       <c r="D278" t="n">
-        <v>13</v>
+        <v>6.14</v>
       </c>
       <c r="E278" t="n">
         <v>6.86</v>
@@ -35586,7 +35606,7 @@
         <v>12.88</v>
       </c>
       <c r="D279" t="n">
-        <v>12.88</v>
+        <v>6.06</v>
       </c>
       <c r="E279" t="n">
         <v>6.82</v>
@@ -35722,7 +35742,7 @@
         <v>12.86</v>
       </c>
       <c r="D280" t="n">
-        <v>12.86</v>
+        <v>5.89</v>
       </c>
       <c r="E280" t="n">
         <v>6.97</v>
@@ -35858,7 +35878,7 @@
         <v>12.92</v>
       </c>
       <c r="D281" t="n">
-        <v>12.92</v>
+        <v>5.94</v>
       </c>
       <c r="E281" t="n">
         <v>6.98</v>
@@ -35998,7 +36018,7 @@
         <v>13.02</v>
       </c>
       <c r="D282" t="n">
-        <v>13.02</v>
+        <v>5.96</v>
       </c>
       <c r="E282" t="n">
         <v>7.06</v>
@@ -36138,7 +36158,7 @@
         <v>14.07</v>
       </c>
       <c r="D283" t="n">
-        <v>14.07</v>
+        <v>5.9</v>
       </c>
       <c r="E283" t="n">
         <v>8.17</v>
@@ -36274,7 +36294,7 @@
         <v>12.41</v>
       </c>
       <c r="D284" t="n">
-        <v>12.41</v>
+        <v>5.96</v>
       </c>
       <c r="E284" t="n">
         <v>6.45</v>
@@ -36408,7 +36428,7 @@
         <v>12.03</v>
       </c>
       <c r="D285" t="n">
-        <v>12.03</v>
+        <v>6.04</v>
       </c>
       <c r="E285" t="n">
         <v>5.99</v>
@@ -36546,7 +36566,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="D286" t="n">
-        <v>9.449999999999999</v>
+        <v>7.96</v>
       </c>
       <c r="E286" t="n">
         <v>1.49</v>
@@ -36682,7 +36702,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="D287" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="E287" t="n">
         <v>0.05</v>
@@ -36804,9 +36824,11 @@
       <c r="B288" t="n">
         <v>2022</v>
       </c>
-      <c r="C288" t="inlineStr"/>
+      <c r="C288" t="n">
+        <v>7.16</v>
+      </c>
       <c r="D288" t="n">
-        <v>7.16</v>
+        <v>8.09</v>
       </c>
       <c r="E288" t="n">
         <v>-0.93</v>
@@ -36971,10 +36993,10 @@
         <v>2000</v>
       </c>
       <c r="C290" t="n">
-        <v>16.96</v>
+        <v>11.6</v>
       </c>
       <c r="D290" t="n">
-        <v>11.6</v>
+        <v>5.85</v>
       </c>
       <c r="E290" t="n">
         <v>5.75</v>
@@ -37092,7 +37114,7 @@
         <v>11.56</v>
       </c>
       <c r="D291" t="n">
-        <v>11.56</v>
+        <v>5.52</v>
       </c>
       <c r="E291" t="n">
         <v>6.04</v>
@@ -37206,7 +37228,7 @@
         <v>11.35</v>
       </c>
       <c r="D292" t="n">
-        <v>11.35</v>
+        <v>5.57</v>
       </c>
       <c r="E292" t="n">
         <v>5.78</v>
@@ -37324,7 +37346,7 @@
         <v>11.43</v>
       </c>
       <c r="D293" t="n">
-        <v>11.43</v>
+        <v>5.58</v>
       </c>
       <c r="E293" t="n">
         <v>5.85</v>
@@ -37444,7 +37466,7 @@
         <v>11.58</v>
       </c>
       <c r="D294" t="n">
-        <v>11.58</v>
+        <v>5.62</v>
       </c>
       <c r="E294" t="n">
         <v>5.96</v>
@@ -37562,7 +37584,7 @@
         <v>11.6</v>
       </c>
       <c r="D295" t="n">
-        <v>11.6</v>
+        <v>5.62</v>
       </c>
       <c r="E295" t="n">
         <v>5.98</v>
@@ -37684,7 +37706,7 @@
         <v>12</v>
       </c>
       <c r="D296" t="n">
-        <v>12</v>
+        <v>5.75</v>
       </c>
       <c r="E296" t="n">
         <v>6.25</v>
@@ -37808,7 +37830,7 @@
         <v>11.9</v>
       </c>
       <c r="D297" t="n">
-        <v>11.9</v>
+        <v>5.9</v>
       </c>
       <c r="E297" t="n">
         <v>6</v>
@@ -37932,7 +37954,7 @@
         <v>12.2</v>
       </c>
       <c r="D298" t="n">
-        <v>12.2</v>
+        <v>5.9</v>
       </c>
       <c r="E298" t="n">
         <v>6.3</v>
@@ -38060,7 +38082,7 @@
         <v>12.2</v>
       </c>
       <c r="D299" t="n">
-        <v>12.2</v>
+        <v>6</v>
       </c>
       <c r="E299" t="n">
         <v>6.2</v>
@@ -38188,7 +38210,7 @@
         <v>11.27</v>
       </c>
       <c r="D300" t="n">
-        <v>11.27</v>
+        <v>5.16</v>
       </c>
       <c r="E300" t="n">
         <v>6.11</v>
@@ -38326,7 +38348,7 @@
         <v>11.41</v>
       </c>
       <c r="D301" t="n">
-        <v>11.41</v>
+        <v>5.2</v>
       </c>
       <c r="E301" t="n">
         <v>6.21</v>
@@ -38466,7 +38488,7 @@
         <v>12.74</v>
       </c>
       <c r="D302" t="n">
-        <v>12.74</v>
+        <v>5.73</v>
       </c>
       <c r="E302" t="n">
         <v>7.01</v>
@@ -38606,7 +38628,7 @@
         <v>12.2</v>
       </c>
       <c r="D303" t="n">
-        <v>12.2</v>
+        <v>6.01</v>
       </c>
       <c r="E303" t="n">
         <v>6.19</v>
@@ -38742,7 +38764,7 @@
         <v>13.7</v>
       </c>
       <c r="D304" t="n">
-        <v>13.7</v>
+        <v>6.2</v>
       </c>
       <c r="E304" t="n">
         <v>7.5</v>
@@ -38876,7 +38898,7 @@
         <v>13.9</v>
       </c>
       <c r="D305" t="n">
-        <v>13.9</v>
+        <v>6.1</v>
       </c>
       <c r="E305" t="n">
         <v>7.8</v>
@@ -39014,7 +39036,7 @@
         <v>14.5</v>
       </c>
       <c r="D306" t="n">
-        <v>14.5</v>
+        <v>6.2</v>
       </c>
       <c r="E306" t="n">
         <v>8.300000000000001</v>
@@ -39154,7 +39176,7 @@
         <v>15</v>
       </c>
       <c r="D307" t="n">
-        <v>15</v>
+        <v>6.2</v>
       </c>
       <c r="E307" t="n">
         <v>8.800000000000001</v>
@@ -39290,7 +39312,7 @@
         <v>13.2</v>
       </c>
       <c r="D308" t="n">
-        <v>13.2</v>
+        <v>6.2</v>
       </c>
       <c r="E308" t="n">
         <v>7</v>
@@ -39424,7 +39446,7 @@
         <v>12.9</v>
       </c>
       <c r="D309" t="n">
-        <v>12.9</v>
+        <v>6.1</v>
       </c>
       <c r="E309" t="n">
         <v>6.8</v>
@@ -39560,7 +39582,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="D310" t="n">
-        <v>9.210000000000001</v>
+        <v>6.24</v>
       </c>
       <c r="E310" t="n">
         <v>2.97</v>
@@ -39694,7 +39716,7 @@
         <v>8.26</v>
       </c>
       <c r="D311" t="n">
-        <v>8.26</v>
+        <v>6.28</v>
       </c>
       <c r="E311" t="n">
         <v>1.98</v>
@@ -39818,7 +39840,7 @@
         <v>7.07</v>
       </c>
       <c r="D312" t="n">
-        <v>7.07</v>
+        <v>6.52</v>
       </c>
       <c r="E312" t="n">
         <v>0.55</v>
@@ -39925,7 +39947,9 @@
         <v>2023</v>
       </c>
       <c r="C313" t="inlineStr"/>
-      <c r="D313" t="inlineStr"/>
+      <c r="D313" t="n">
+        <v>6.95</v>
+      </c>
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr"/>
       <c r="G313" t="inlineStr"/>
@@ -39990,7 +40014,7 @@
         <v>15.55</v>
       </c>
       <c r="D314" t="n">
-        <v>15.55</v>
+        <v>6.07</v>
       </c>
       <c r="E314" t="n">
         <v>9.48</v>
@@ -40110,7 +40134,7 @@
         <v>15.44</v>
       </c>
       <c r="D315" t="n">
-        <v>15.44</v>
+        <v>6.06</v>
       </c>
       <c r="E315" t="n">
         <v>9.380000000000001</v>
@@ -40226,7 +40250,7 @@
         <v>14.74</v>
       </c>
       <c r="D316" t="n">
-        <v>14.74</v>
+        <v>6.02</v>
       </c>
       <c r="E316" t="n">
         <v>8.720000000000001</v>
@@ -40346,7 +40370,7 @@
         <v>14.07</v>
       </c>
       <c r="D317" t="n">
-        <v>14.07</v>
+        <v>5.98</v>
       </c>
       <c r="E317" t="n">
         <v>8.09</v>
@@ -40466,7 +40490,7 @@
         <v>13.61</v>
       </c>
       <c r="D318" t="n">
-        <v>13.61</v>
+        <v>5.99</v>
       </c>
       <c r="E318" t="n">
         <v>7.62</v>
@@ -40586,7 +40610,7 @@
         <v>13.79</v>
       </c>
       <c r="D319" t="n">
-        <v>13.79</v>
+        <v>5.96</v>
       </c>
       <c r="E319" t="n">
         <v>7.83</v>
@@ -40708,7 +40732,7 @@
         <v>13.8</v>
       </c>
       <c r="D320" t="n">
-        <v>13.8</v>
+        <v>6.01</v>
       </c>
       <c r="E320" t="n">
         <v>7.79</v>
@@ -40834,7 +40858,7 @@
         <v>13.86</v>
       </c>
       <c r="D321" t="n">
-        <v>13.86</v>
+        <v>5.99</v>
       </c>
       <c r="E321" t="n">
         <v>7.87</v>
@@ -40960,7 +40984,7 @@
         <v>13.92</v>
       </c>
       <c r="D322" t="n">
-        <v>13.92</v>
+        <v>6.01</v>
       </c>
       <c r="E322" t="n">
         <v>7.91</v>
@@ -41090,7 +41114,7 @@
         <v>13.87</v>
       </c>
       <c r="D323" t="n">
-        <v>13.87</v>
+        <v>5.98</v>
       </c>
       <c r="E323" t="n">
         <v>7.89</v>
@@ -41220,7 +41244,7 @@
         <v>13.72</v>
       </c>
       <c r="D324" t="n">
-        <v>13.72</v>
+        <v>6.06</v>
       </c>
       <c r="E324" t="n">
         <v>7.66</v>
@@ -41358,7 +41382,7 @@
         <v>13.48</v>
       </c>
       <c r="D325" t="n">
-        <v>13.48</v>
+        <v>5.98</v>
       </c>
       <c r="E325" t="n">
         <v>7.5</v>
@@ -41498,7 +41522,7 @@
         <v>13.46</v>
       </c>
       <c r="D326" t="n">
-        <v>13.46</v>
+        <v>6.14</v>
       </c>
       <c r="E326" t="n">
         <v>7.32</v>
@@ -41638,7 +41662,7 @@
         <v>13.19</v>
       </c>
       <c r="D327" t="n">
-        <v>13.19</v>
+        <v>6.28</v>
       </c>
       <c r="E327" t="n">
         <v>6.91</v>
@@ -41774,7 +41798,7 @@
         <v>13.24</v>
       </c>
       <c r="D328" t="n">
-        <v>13.24</v>
+        <v>6.26</v>
       </c>
       <c r="E328" t="n">
         <v>6.98</v>
@@ -41910,7 +41934,7 @@
         <v>13.2</v>
       </c>
       <c r="D329" t="n">
-        <v>13.2</v>
+        <v>6.24</v>
       </c>
       <c r="E329" t="n">
         <v>6.96</v>
@@ -42052,7 +42076,7 @@
         <v>13.45</v>
       </c>
       <c r="D330" t="n">
-        <v>13.45</v>
+        <v>6.16</v>
       </c>
       <c r="E330" t="n">
         <v>7.29</v>
@@ -42192,7 +42216,7 @@
         <v>13.79</v>
       </c>
       <c r="D331" t="n">
-        <v>13.79</v>
+        <v>6.08</v>
       </c>
       <c r="E331" t="n">
         <v>7.71</v>
@@ -42328,7 +42352,7 @@
         <v>13.43</v>
       </c>
       <c r="D332" t="n">
-        <v>13.43</v>
+        <v>6.06</v>
       </c>
       <c r="E332" t="n">
         <v>7.37</v>
@@ -42460,7 +42484,7 @@
         <v>12.59</v>
       </c>
       <c r="D333" t="n">
-        <v>12.59</v>
+        <v>6.03</v>
       </c>
       <c r="E333" t="n">
         <v>6.56</v>
@@ -42596,7 +42620,7 @@
         <v>9.48</v>
       </c>
       <c r="D334" t="n">
-        <v>9.48</v>
+        <v>6.61</v>
       </c>
       <c r="E334" t="n">
         <v>2.87</v>
@@ -42730,7 +42754,7 @@
         <v>8.34</v>
       </c>
       <c r="D335" t="n">
-        <v>8.34</v>
+        <v>6.71</v>
       </c>
       <c r="E335" t="n">
         <v>1.63</v>
@@ -42854,7 +42878,7 @@
         <v>7.19</v>
       </c>
       <c r="D336" t="n">
-        <v>7.19</v>
+        <v>6.94</v>
       </c>
       <c r="E336" t="n">
         <v>0.25</v>
@@ -42959,7 +42983,9 @@
         <v>2023</v>
       </c>
       <c r="C337" t="inlineStr"/>
-      <c r="D337" t="inlineStr"/>
+      <c r="D337" t="n">
+        <v>7.36</v>
+      </c>
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr"/>
@@ -43017,10 +43043,10 @@
         <v>2000</v>
       </c>
       <c r="C338" t="n">
-        <v>10.75</v>
+        <v>11.38</v>
       </c>
       <c r="D338" t="n">
-        <v>11.38</v>
+        <v>6.7</v>
       </c>
       <c r="E338" t="n">
         <v>4.68</v>
@@ -43136,7 +43162,7 @@
         <v>11.12</v>
       </c>
       <c r="D339" t="n">
-        <v>11.12</v>
+        <v>6.24</v>
       </c>
       <c r="E339" t="n">
         <v>4.88</v>
@@ -43250,7 +43276,7 @@
         <v>11.17</v>
       </c>
       <c r="D340" t="n">
-        <v>11.17</v>
+        <v>6.62</v>
       </c>
       <c r="E340" t="n">
         <v>4.55</v>
@@ -43366,7 +43392,7 @@
         <v>11.42</v>
       </c>
       <c r="D341" t="n">
-        <v>11.42</v>
+        <v>6.64</v>
       </c>
       <c r="E341" t="n">
         <v>4.78</v>
@@ -43482,7 +43508,7 @@
         <v>12.5</v>
       </c>
       <c r="D342" t="n">
-        <v>12.5</v>
+        <v>6.49</v>
       </c>
       <c r="E342" t="n">
         <v>6.01</v>
@@ -43598,7 +43624,7 @@
         <v>12.14</v>
       </c>
       <c r="D343" t="n">
-        <v>12.14</v>
+        <v>6.31</v>
       </c>
       <c r="E343" t="n">
         <v>5.83</v>
@@ -43718,7 +43744,7 @@
         <v>11.6</v>
       </c>
       <c r="D344" t="n">
-        <v>11.6</v>
+        <v>6.1</v>
       </c>
       <c r="E344" t="n">
         <v>5.5</v>
@@ -43844,7 +43870,7 @@
         <v>11.11</v>
       </c>
       <c r="D345" t="n">
-        <v>11.11</v>
+        <v>6.11</v>
       </c>
       <c r="E345" t="n">
         <v>5</v>
@@ -43970,7 +43996,7 @@
         <v>11.25</v>
       </c>
       <c r="D346" t="n">
-        <v>11.25</v>
+        <v>6.16</v>
       </c>
       <c r="E346" t="n">
         <v>5.09</v>
@@ -44100,7 +44126,7 @@
         <v>11.7</v>
       </c>
       <c r="D347" t="n">
-        <v>11.7</v>
+        <v>6.08</v>
       </c>
       <c r="E347" t="n">
         <v>5.62</v>
@@ -44230,7 +44256,7 @@
         <v>11.65</v>
       </c>
       <c r="D348" t="n">
-        <v>11.65</v>
+        <v>6.26</v>
       </c>
       <c r="E348" t="n">
         <v>5.39</v>
@@ -44368,7 +44394,7 @@
         <v>11.5</v>
       </c>
       <c r="D349" t="n">
-        <v>11.5</v>
+        <v>6.4</v>
       </c>
       <c r="E349" t="n">
         <v>5.1</v>
@@ -44508,7 +44534,7 @@
         <v>11.9</v>
       </c>
       <c r="D350" t="n">
-        <v>11.9</v>
+        <v>6.95</v>
       </c>
       <c r="E350" t="n">
         <v>4.95</v>
@@ -44648,7 +44674,7 @@
         <v>11.41</v>
       </c>
       <c r="D351" t="n">
-        <v>11.41</v>
+        <v>6.4</v>
       </c>
       <c r="E351" t="n">
         <v>5.01</v>
@@ -44784,7 +44810,7 @@
         <v>14.23</v>
       </c>
       <c r="D352" t="n">
-        <v>14.23</v>
+        <v>6.84</v>
       </c>
       <c r="E352" t="n">
         <v>7.39</v>
@@ -44918,7 +44944,7 @@
         <v>12.55</v>
       </c>
       <c r="D353" t="n">
-        <v>12.55</v>
+        <v>6.67</v>
       </c>
       <c r="E353" t="n">
         <v>5.88</v>
@@ -45056,7 +45082,7 @@
         <v>17.89</v>
       </c>
       <c r="D354" t="n">
-        <v>17.89</v>
+        <v>7.05</v>
       </c>
       <c r="E354" t="n">
         <v>10.84</v>
@@ -45196,7 +45222,7 @@
         <v>17.54</v>
       </c>
       <c r="D355" t="n">
-        <v>17.54</v>
+        <v>7.4</v>
       </c>
       <c r="E355" t="n">
         <v>10.14</v>
@@ -45332,7 +45358,7 @@
         <v>13.26</v>
       </c>
       <c r="D356" t="n">
-        <v>13.26</v>
+        <v>7.18</v>
       </c>
       <c r="E356" t="n">
         <v>6.08</v>
@@ -45466,7 +45492,7 @@
         <v>11.77</v>
       </c>
       <c r="D357" t="n">
-        <v>11.77</v>
+        <v>7.5</v>
       </c>
       <c r="E357" t="n">
         <v>4.27</v>
@@ -45602,7 +45628,7 @@
         <v>8.56</v>
       </c>
       <c r="D358" t="n">
-        <v>8.56</v>
+        <v>7.25</v>
       </c>
       <c r="E358" t="n">
         <v>1.31</v>
@@ -45738,7 +45764,7 @@
         <v>7.38</v>
       </c>
       <c r="D359" t="n">
-        <v>7.38</v>
+        <v>7.36</v>
       </c>
       <c r="E359" t="n">
         <v>0.02</v>
@@ -45862,7 +45888,7 @@
         <v>6.71</v>
       </c>
       <c r="D360" t="n">
-        <v>6.71</v>
+        <v>7.64</v>
       </c>
       <c r="E360" t="n">
         <v>-0.93</v>
@@ -45967,7 +45993,9 @@
         <v>2023</v>
       </c>
       <c r="C361" t="inlineStr"/>
-      <c r="D361" t="inlineStr"/>
+      <c r="D361" t="n">
+        <v>8.19</v>
+      </c>
       <c r="E361" t="inlineStr"/>
       <c r="F361" t="inlineStr"/>
       <c r="G361" t="inlineStr"/>
@@ -46028,7 +46056,7 @@
         <v>13.07</v>
       </c>
       <c r="D362" t="n">
-        <v>13.07</v>
+        <v>5.93</v>
       </c>
       <c r="E362" t="n">
         <v>7.14</v>
@@ -46146,7 +46174,7 @@
         <v>13.2</v>
       </c>
       <c r="D363" t="n">
-        <v>13.2</v>
+        <v>6.26</v>
       </c>
       <c r="E363" t="n">
         <v>6.94</v>
@@ -46258,7 +46286,7 @@
         <v>12.41</v>
       </c>
       <c r="D364" t="n">
-        <v>12.41</v>
+        <v>6.38</v>
       </c>
       <c r="E364" t="n">
         <v>6.03</v>
@@ -46376,7 +46404,7 @@
         <v>12.1</v>
       </c>
       <c r="D365" t="n">
-        <v>12.1</v>
+        <v>6.46</v>
       </c>
       <c r="E365" t="n">
         <v>5.64</v>
@@ -46494,7 +46522,7 @@
         <v>11.67</v>
       </c>
       <c r="D366" t="n">
-        <v>11.67</v>
+        <v>6.47</v>
       </c>
       <c r="E366" t="n">
         <v>5.2</v>
@@ -46612,7 +46640,7 @@
         <v>11.55</v>
       </c>
       <c r="D367" t="n">
-        <v>11.55</v>
+        <v>6.3</v>
       </c>
       <c r="E367" t="n">
         <v>5.25</v>
@@ -46732,7 +46760,7 @@
         <v>11.59</v>
       </c>
       <c r="D368" t="n">
-        <v>11.59</v>
+        <v>6.27</v>
       </c>
       <c r="E368" t="n">
         <v>5.32</v>
@@ -46853,10 +46881,10 @@
         <v>2007</v>
       </c>
       <c r="C369" t="n">
-        <v>11.3</v>
+        <v>11.26</v>
       </c>
       <c r="D369" t="n">
-        <v>11.26</v>
+        <v>6.32</v>
       </c>
       <c r="E369" t="n">
         <v>4.94</v>
@@ -46980,7 +47008,7 @@
         <v>11.42</v>
       </c>
       <c r="D370" t="n">
-        <v>11.42</v>
+        <v>6.45</v>
       </c>
       <c r="E370" t="n">
         <v>4.97</v>
@@ -47110,7 +47138,7 @@
         <v>11.45</v>
       </c>
       <c r="D371" t="n">
-        <v>11.45</v>
+        <v>6.46</v>
       </c>
       <c r="E371" t="n">
         <v>4.99</v>
@@ -47240,7 +47268,7 @@
         <v>11.52</v>
       </c>
       <c r="D372" t="n">
-        <v>11.52</v>
+        <v>6.57</v>
       </c>
       <c r="E372" t="n">
         <v>4.95</v>
@@ -47378,7 +47406,7 @@
         <v>11.56</v>
       </c>
       <c r="D373" t="n">
-        <v>11.56</v>
+        <v>6.62</v>
       </c>
       <c r="E373" t="n">
         <v>4.94</v>
@@ -47518,7 +47546,7 @@
         <v>11.87</v>
       </c>
       <c r="D374" t="n">
-        <v>11.87</v>
+        <v>6.71</v>
       </c>
       <c r="E374" t="n">
         <v>5.16</v>
@@ -47658,7 +47686,7 @@
         <v>12.27</v>
       </c>
       <c r="D375" t="n">
-        <v>12.27</v>
+        <v>6.76</v>
       </c>
       <c r="E375" t="n">
         <v>5.51</v>
@@ -47794,7 +47822,7 @@
         <v>12.8</v>
       </c>
       <c r="D376" t="n">
-        <v>12.8</v>
+        <v>7.02</v>
       </c>
       <c r="E376" t="n">
         <v>5.78</v>
@@ -47930,7 +47958,7 @@
         <v>12.7</v>
       </c>
       <c r="D377" t="n">
-        <v>12.7</v>
+        <v>7.05</v>
       </c>
       <c r="E377" t="n">
         <v>5.65</v>
@@ -48070,7 +48098,7 @@
         <v>13.26</v>
       </c>
       <c r="D378" t="n">
-        <v>13.26</v>
+        <v>7.11</v>
       </c>
       <c r="E378" t="n">
         <v>6.15</v>
@@ -48210,7 +48238,7 @@
         <v>12.95</v>
       </c>
       <c r="D379" t="n">
-        <v>12.95</v>
+        <v>6.97</v>
       </c>
       <c r="E379" t="n">
         <v>5.98</v>
@@ -48346,7 +48374,7 @@
         <v>11.72</v>
       </c>
       <c r="D380" t="n">
-        <v>11.72</v>
+        <v>6.8</v>
       </c>
       <c r="E380" t="n">
         <v>4.92</v>
@@ -48480,7 +48508,7 @@
         <v>11.02</v>
       </c>
       <c r="D381" t="n">
-        <v>11.02</v>
+        <v>6.84</v>
       </c>
       <c r="E381" t="n">
         <v>4.18</v>
@@ -48618,7 +48646,7 @@
         <v>9.24</v>
       </c>
       <c r="D382" t="n">
-        <v>9.24</v>
+        <v>7.15</v>
       </c>
       <c r="E382" t="n">
         <v>2.09</v>
@@ -48754,7 +48782,7 @@
         <v>8</v>
       </c>
       <c r="D383" t="n">
-        <v>8</v>
+        <v>7.36</v>
       </c>
       <c r="E383" t="n">
         <v>0.64</v>
@@ -48876,7 +48904,7 @@
         <v>7.42</v>
       </c>
       <c r="D384" t="n">
-        <v>7.42</v>
+        <v>7.5</v>
       </c>
       <c r="E384" t="n">
         <v>-0.08</v>
@@ -49040,7 +49068,7 @@
         <v>9.710000000000001</v>
       </c>
       <c r="D386" t="n">
-        <v>9.710000000000001</v>
+        <v>6.01</v>
       </c>
       <c r="E386" t="n">
         <v>3.7</v>
@@ -49160,7 +49188,7 @@
         <v>8.51</v>
       </c>
       <c r="D387" t="n">
-        <v>8.51</v>
+        <v>6.07</v>
       </c>
       <c r="E387" t="n">
         <v>2.44</v>
@@ -49274,7 +49302,7 @@
         <v>8.380000000000001</v>
       </c>
       <c r="D388" t="n">
-        <v>8.380000000000001</v>
+        <v>6.17</v>
       </c>
       <c r="E388" t="n">
         <v>2.21</v>
@@ -49392,7 +49420,7 @@
         <v>8.26</v>
       </c>
       <c r="D389" t="n">
-        <v>8.26</v>
+        <v>5.94</v>
       </c>
       <c r="E389" t="n">
         <v>2.32</v>
@@ -49510,7 +49538,7 @@
         <v>8.43</v>
       </c>
       <c r="D390" t="n">
-        <v>8.43</v>
+        <v>6.03</v>
       </c>
       <c r="E390" t="n">
         <v>2.4</v>
@@ -49628,7 +49656,7 @@
         <v>8.74</v>
       </c>
       <c r="D391" t="n">
-        <v>8.74</v>
+        <v>5.69</v>
       </c>
       <c r="E391" t="n">
         <v>3.05</v>
@@ -49748,7 +49776,7 @@
         <v>9.08</v>
       </c>
       <c r="D392" t="n">
-        <v>9.08</v>
+        <v>5.95</v>
       </c>
       <c r="E392" t="n">
         <v>3.13</v>
@@ -49874,7 +49902,7 @@
         <v>9.19</v>
       </c>
       <c r="D393" t="n">
-        <v>9.19</v>
+        <v>5.96</v>
       </c>
       <c r="E393" t="n">
         <v>3.23</v>
@@ -50000,7 +50028,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="D394" t="n">
-        <v>9.210000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="E394" t="n">
         <v>2.71</v>
@@ -50130,7 +50158,7 @@
         <v>9.48</v>
       </c>
       <c r="D395" t="n">
-        <v>9.48</v>
+        <v>6</v>
       </c>
       <c r="E395" t="n">
         <v>3.48</v>
@@ -50260,7 +50288,7 @@
         <v>10.36</v>
       </c>
       <c r="D396" t="n">
-        <v>10.36</v>
+        <v>6.02</v>
       </c>
       <c r="E396" t="n">
         <v>4.34</v>
@@ -50394,7 +50422,7 @@
         <v>10.39</v>
       </c>
       <c r="D397" t="n">
-        <v>10.39</v>
+        <v>6.01</v>
       </c>
       <c r="E397" t="n">
         <v>4.38</v>
@@ -50534,7 +50562,7 @@
         <v>11</v>
       </c>
       <c r="D398" t="n">
-        <v>11</v>
+        <v>6.12</v>
       </c>
       <c r="E398" t="n">
         <v>4.88</v>
@@ -50674,7 +50702,7 @@
         <v>11.08</v>
       </c>
       <c r="D399" t="n">
-        <v>11.08</v>
+        <v>6.15</v>
       </c>
       <c r="E399" t="n">
         <v>4.93</v>
@@ -50810,7 +50838,7 @@
         <v>11.86</v>
       </c>
       <c r="D400" t="n">
-        <v>11.86</v>
+        <v>6.96</v>
       </c>
       <c r="E400" t="n">
         <v>4.9</v>
@@ -50944,7 +50972,7 @@
         <v>10.74</v>
       </c>
       <c r="D401" t="n">
-        <v>10.74</v>
+        <v>5.83</v>
       </c>
       <c r="E401" t="n">
         <v>4.91</v>
@@ -51082,7 +51110,7 @@
         <v>12.04</v>
       </c>
       <c r="D402" t="n">
-        <v>12.04</v>
+        <v>6.97</v>
       </c>
       <c r="E402" t="n">
         <v>5.07</v>
@@ -51222,7 +51250,7 @@
         <v>12.6</v>
       </c>
       <c r="D403" t="n">
-        <v>12.6</v>
+        <v>7.01</v>
       </c>
       <c r="E403" t="n">
         <v>5.59</v>
@@ -51358,7 +51386,7 @@
         <v>11.54</v>
       </c>
       <c r="D404" t="n">
-        <v>11.54</v>
+        <v>7</v>
       </c>
       <c r="E404" t="n">
         <v>4.54</v>
@@ -51490,7 +51518,7 @@
         <v>11.35</v>
       </c>
       <c r="D405" t="n">
-        <v>11.35</v>
+        <v>7.08</v>
       </c>
       <c r="E405" t="n">
         <v>4.27</v>
@@ -51626,7 +51654,7 @@
         <v>8.279999999999999</v>
       </c>
       <c r="D406" t="n">
-        <v>8.279999999999999</v>
+        <v>7.67</v>
       </c>
       <c r="E406" t="n">
         <v>0.61</v>
@@ -51760,7 +51788,7 @@
         <v>6.98</v>
       </c>
       <c r="D407" t="n">
-        <v>6.98</v>
+        <v>7.86</v>
       </c>
       <c r="E407" t="n">
         <v>-0.88</v>
@@ -51884,7 +51912,7 @@
         <v>6.08</v>
       </c>
       <c r="D408" t="n">
-        <v>6.08</v>
+        <v>8.09</v>
       </c>
       <c r="E408" t="n">
         <v>-2.01</v>
@@ -52052,7 +52080,7 @@
         <v>11.45</v>
       </c>
       <c r="D410" t="n">
-        <v>11.45</v>
+        <v>6.79</v>
       </c>
       <c r="E410" t="n">
         <v>4.66</v>
@@ -52170,7 +52198,7 @@
         <v>11.8</v>
       </c>
       <c r="D411" t="n">
-        <v>11.8</v>
+        <v>6.72</v>
       </c>
       <c r="E411" t="n">
         <v>5.08</v>
@@ -52284,7 +52312,7 @@
         <v>11.56</v>
       </c>
       <c r="D412" t="n">
-        <v>11.56</v>
+        <v>6.7</v>
       </c>
       <c r="E412" t="n">
         <v>4.86</v>
@@ -52402,7 +52430,7 @@
         <v>11.82</v>
       </c>
       <c r="D413" t="n">
-        <v>11.82</v>
+        <v>6.87</v>
       </c>
       <c r="E413" t="n">
         <v>4.95</v>
@@ -52520,7 +52548,7 @@
         <v>11.89</v>
       </c>
       <c r="D414" t="n">
-        <v>11.89</v>
+        <v>6.8</v>
       </c>
       <c r="E414" t="n">
         <v>5.09</v>
@@ -52638,7 +52666,7 @@
         <v>11.9</v>
       </c>
       <c r="D415" t="n">
-        <v>11.9</v>
+        <v>6.75</v>
       </c>
       <c r="E415" t="n">
         <v>5.15</v>
@@ -52760,7 +52788,7 @@
         <v>11.92</v>
       </c>
       <c r="D416" t="n">
-        <v>11.92</v>
+        <v>6.73</v>
       </c>
       <c r="E416" t="n">
         <v>5.19</v>
@@ -52888,7 +52916,7 @@
         <v>11.96</v>
       </c>
       <c r="D417" t="n">
-        <v>11.96</v>
+        <v>6.71</v>
       </c>
       <c r="E417" t="n">
         <v>5.25</v>
@@ -53016,7 +53044,7 @@
         <v>12.68</v>
       </c>
       <c r="D418" t="n">
-        <v>12.68</v>
+        <v>7.28</v>
       </c>
       <c r="E418" t="n">
         <v>5.4</v>
@@ -53148,7 +53176,7 @@
         <v>13.05</v>
       </c>
       <c r="D419" t="n">
-        <v>13.05</v>
+        <v>6.94</v>
       </c>
       <c r="E419" t="n">
         <v>6.11</v>
@@ -53277,10 +53305,10 @@
         <v>2010</v>
       </c>
       <c r="C420" t="n">
-        <v>13.1</v>
+        <v>13.09</v>
       </c>
       <c r="D420" t="n">
-        <v>13.09</v>
+        <v>6.7</v>
       </c>
       <c r="E420" t="n">
         <v>6.4</v>
@@ -53413,10 +53441,10 @@
         <v>2011</v>
       </c>
       <c r="C421" t="n">
-        <v>14.44</v>
+        <v>13.35</v>
       </c>
       <c r="D421" t="n">
-        <v>13.35</v>
+        <v>6.8</v>
       </c>
       <c r="E421" t="n">
         <v>6.55</v>
@@ -53553,10 +53581,10 @@
         <v>2012</v>
       </c>
       <c r="C422" t="n">
-        <v>14.76</v>
+        <v>13.58</v>
       </c>
       <c r="D422" t="n">
-        <v>13.58</v>
+        <v>7.01</v>
       </c>
       <c r="E422" t="n">
         <v>6.57</v>
@@ -53693,10 +53721,10 @@
         <v>2013</v>
       </c>
       <c r="C423" t="n">
-        <v>14.66</v>
+        <v>13.5</v>
       </c>
       <c r="D423" t="n">
-        <v>13.5</v>
+        <v>6.96</v>
       </c>
       <c r="E423" t="n">
         <v>6.54</v>
@@ -53829,10 +53857,10 @@
         <v>2014</v>
       </c>
       <c r="C424" t="n">
-        <v>13.74</v>
+        <v>13.52</v>
       </c>
       <c r="D424" t="n">
-        <v>13.52</v>
+        <v>6.89</v>
       </c>
       <c r="E424" t="n">
         <v>6.63</v>
@@ -53963,10 +53991,10 @@
         <v>2015</v>
       </c>
       <c r="C425" t="n">
-        <v>13.88</v>
+        <v>13.58</v>
       </c>
       <c r="D425" t="n">
-        <v>13.58</v>
+        <v>6.86</v>
       </c>
       <c r="E425" t="n">
         <v>6.72</v>
@@ -54101,10 +54129,10 @@
         <v>2016</v>
       </c>
       <c r="C426" t="n">
-        <v>13.94</v>
+        <v>13.57</v>
       </c>
       <c r="D426" t="n">
-        <v>13.57</v>
+        <v>7.01</v>
       </c>
       <c r="E426" t="n">
         <v>6.56</v>
@@ -54241,10 +54269,10 @@
         <v>2017</v>
       </c>
       <c r="C427" t="n">
-        <v>13.69</v>
+        <v>13.27</v>
       </c>
       <c r="D427" t="n">
-        <v>13.27</v>
+        <v>7.08</v>
       </c>
       <c r="E427" t="n">
         <v>6.19</v>
@@ -54377,10 +54405,10 @@
         <v>2018</v>
       </c>
       <c r="C428" t="n">
-        <v>12.64</v>
+        <v>12.19</v>
       </c>
       <c r="D428" t="n">
-        <v>12.19</v>
+        <v>7.08</v>
       </c>
       <c r="E428" t="n">
         <v>5.11</v>
@@ -54511,10 +54539,10 @@
         <v>2019</v>
       </c>
       <c r="C429" t="n">
-        <v>10.81</v>
+        <v>10.39</v>
       </c>
       <c r="D429" t="n">
-        <v>10.39</v>
+        <v>7.28</v>
       </c>
       <c r="E429" t="n">
         <v>3.11</v>
@@ -54650,7 +54678,7 @@
         <v>8.529999999999999</v>
       </c>
       <c r="D430" t="n">
-        <v>8.529999999999999</v>
+        <v>7.92</v>
       </c>
       <c r="E430" t="n">
         <v>0.61</v>
@@ -54784,7 +54812,7 @@
         <v>7.13</v>
       </c>
       <c r="D431" t="n">
-        <v>7.13</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="E431" t="n">
         <v>-1.15</v>
@@ -54908,7 +54936,7 @@
         <v>6.23</v>
       </c>
       <c r="D432" t="n">
-        <v>6.23</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="E432" t="n">
         <v>-2.31</v>
@@ -55071,10 +55099,10 @@
         <v>2000</v>
       </c>
       <c r="C434" t="n">
-        <v>12.91</v>
+        <v>15.32</v>
       </c>
       <c r="D434" t="n">
-        <v>15.32</v>
+        <v>5.4</v>
       </c>
       <c r="E434" t="n">
         <v>9.92</v>
@@ -55196,7 +55224,7 @@
         <v>13.95</v>
       </c>
       <c r="D435" t="n">
-        <v>13.95</v>
+        <v>5.12</v>
       </c>
       <c r="E435" t="n">
         <v>8.83</v>
@@ -55312,7 +55340,7 @@
         <v>13.29</v>
       </c>
       <c r="D436" t="n">
-        <v>13.29</v>
+        <v>5.08</v>
       </c>
       <c r="E436" t="n">
         <v>8.210000000000001</v>
@@ -55432,7 +55460,7 @@
         <v>13.66</v>
       </c>
       <c r="D437" t="n">
-        <v>13.66</v>
+        <v>5.31</v>
       </c>
       <c r="E437" t="n">
         <v>8.35</v>
@@ -55552,7 +55580,7 @@
         <v>13.13</v>
       </c>
       <c r="D438" t="n">
-        <v>13.13</v>
+        <v>5.12</v>
       </c>
       <c r="E438" t="n">
         <v>8.01</v>
@@ -55672,7 +55700,7 @@
         <v>11.7</v>
       </c>
       <c r="D439" t="n">
-        <v>11.7</v>
+        <v>4.68</v>
       </c>
       <c r="E439" t="n">
         <v>7.02</v>
@@ -55796,7 +55824,7 @@
         <v>11.78</v>
       </c>
       <c r="D440" t="n">
-        <v>11.78</v>
+        <v>4.49</v>
       </c>
       <c r="E440" t="n">
         <v>7.29</v>
@@ -55922,7 +55950,7 @@
         <v>11.96</v>
       </c>
       <c r="D441" t="n">
-        <v>11.96</v>
+        <v>4.66</v>
       </c>
       <c r="E441" t="n">
         <v>7.3</v>
@@ -56048,7 +56076,7 @@
         <v>11.8</v>
       </c>
       <c r="D442" t="n">
-        <v>11.8</v>
+        <v>4.55</v>
       </c>
       <c r="E442" t="n">
         <v>7.25</v>
@@ -56178,7 +56206,7 @@
         <v>11.78</v>
       </c>
       <c r="D443" t="n">
-        <v>11.78</v>
+        <v>4.52</v>
       </c>
       <c r="E443" t="n">
         <v>7.26</v>
@@ -56308,7 +56336,7 @@
         <v>11.18</v>
       </c>
       <c r="D444" t="n">
-        <v>11.18</v>
+        <v>4.21</v>
       </c>
       <c r="E444" t="n">
         <v>6.97</v>
@@ -56444,7 +56472,7 @@
         <v>10.45</v>
       </c>
       <c r="D445" t="n">
-        <v>10.45</v>
+        <v>4.35</v>
       </c>
       <c r="E445" t="n">
         <v>6.1</v>
@@ -56584,7 +56612,7 @@
         <v>11.6</v>
       </c>
       <c r="D446" t="n">
-        <v>11.6</v>
+        <v>4.65</v>
       </c>
       <c r="E446" t="n">
         <v>6.95</v>
@@ -56724,7 +56752,7 @@
         <v>10.71</v>
       </c>
       <c r="D447" t="n">
-        <v>10.71</v>
+        <v>4.69</v>
       </c>
       <c r="E447" t="n">
         <v>6.02</v>
@@ -56860,7 +56888,7 @@
         <v>10.8</v>
       </c>
       <c r="D448" t="n">
-        <v>10.8</v>
+        <v>4.7</v>
       </c>
       <c r="E448" t="n">
         <v>6.1</v>
@@ -56994,7 +57022,7 @@
         <v>11.12</v>
       </c>
       <c r="D449" t="n">
-        <v>11.12</v>
+        <v>4.32</v>
       </c>
       <c r="E449" t="n">
         <v>6.8</v>
@@ -57132,7 +57160,7 @@
         <v>11.85</v>
       </c>
       <c r="D450" t="n">
-        <v>11.85</v>
+        <v>4.41</v>
       </c>
       <c r="E450" t="n">
         <v>7.44</v>
@@ -57272,7 +57300,7 @@
         <v>13.68</v>
       </c>
       <c r="D451" t="n">
-        <v>13.68</v>
+        <v>4.52</v>
       </c>
       <c r="E451" t="n">
         <v>9.16</v>
@@ -57408,7 +57436,7 @@
         <v>12.79</v>
       </c>
       <c r="D452" t="n">
-        <v>12.79</v>
+        <v>4.55</v>
       </c>
       <c r="E452" t="n">
         <v>8.24</v>
@@ -57542,7 +57570,7 @@
         <v>12.54</v>
       </c>
       <c r="D453" t="n">
-        <v>12.54</v>
+        <v>4.46</v>
       </c>
       <c r="E453" t="n">
         <v>8.08</v>
@@ -57678,7 +57706,7 @@
         <v>10.28</v>
       </c>
       <c r="D454" t="n">
-        <v>10.28</v>
+        <v>4.7</v>
       </c>
       <c r="E454" t="n">
         <v>5.58</v>
@@ -57810,7 +57838,7 @@
         <v>9.35</v>
       </c>
       <c r="D455" t="n">
-        <v>9.35</v>
+        <v>4.83</v>
       </c>
       <c r="E455" t="n">
         <v>4.52</v>
@@ -57932,7 +57960,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="D456" t="n">
-        <v>8.300000000000001</v>
+        <v>4.97</v>
       </c>
       <c r="E456" t="n">
         <v>3.33</v>
@@ -58100,7 +58128,7 @@
         <v>13.6</v>
       </c>
       <c r="D458" t="n">
-        <v>13.6</v>
+        <v>5.7</v>
       </c>
       <c r="E458" t="n">
         <v>7.9</v>
@@ -58220,7 +58248,7 @@
         <v>13.8</v>
       </c>
       <c r="D459" t="n">
-        <v>13.8</v>
+        <v>6.07</v>
       </c>
       <c r="E459" t="n">
         <v>7.73</v>
@@ -58332,7 +58360,7 @@
         <v>13.3</v>
       </c>
       <c r="D460" t="n">
-        <v>13.3</v>
+        <v>6.3</v>
       </c>
       <c r="E460" t="n">
         <v>7</v>
@@ -58450,7 +58478,7 @@
         <v>13.86</v>
       </c>
       <c r="D461" t="n">
-        <v>13.86</v>
+        <v>6.57</v>
       </c>
       <c r="E461" t="n">
         <v>7.29</v>
@@ -58568,7 +58596,7 @@
         <v>13.32</v>
       </c>
       <c r="D462" t="n">
-        <v>13.32</v>
+        <v>6.12</v>
       </c>
       <c r="E462" t="n">
         <v>7.2</v>
@@ -58686,7 +58714,7 @@
         <v>14.26</v>
       </c>
       <c r="D463" t="n">
-        <v>14.26</v>
+        <v>6.09</v>
       </c>
       <c r="E463" t="n">
         <v>8.16</v>
@@ -58808,7 +58836,7 @@
         <v>14.44</v>
       </c>
       <c r="D464" t="n">
-        <v>14.44</v>
+        <v>6.1</v>
       </c>
       <c r="E464" t="n">
         <v>8.34</v>
@@ -58934,7 +58962,7 @@
         <v>14.19</v>
       </c>
       <c r="D465" t="n">
-        <v>14.19</v>
+        <v>5.99</v>
       </c>
       <c r="E465" t="n">
         <v>8.199999999999999</v>
@@ -59060,7 +59088,7 @@
         <v>14.4</v>
       </c>
       <c r="D466" t="n">
-        <v>14.4</v>
+        <v>5.7</v>
       </c>
       <c r="E466" t="n">
         <v>8.699999999999999</v>
@@ -59190,7 +59218,7 @@
         <v>14.17</v>
       </c>
       <c r="D467" t="n">
-        <v>14.17</v>
+        <v>5.64</v>
       </c>
       <c r="E467" t="n">
         <v>8.529999999999999</v>
@@ -59320,7 +59348,7 @@
         <v>14.13</v>
       </c>
       <c r="D468" t="n">
-        <v>14.13</v>
+        <v>5.48</v>
       </c>
       <c r="E468" t="n">
         <v>8.65</v>
@@ -59456,7 +59484,7 @@
         <v>13.71</v>
       </c>
       <c r="D469" t="n">
-        <v>13.71</v>
+        <v>6.04</v>
       </c>
       <c r="E469" t="n">
         <v>7.67</v>
@@ -59596,7 +59624,7 @@
         <v>14.2</v>
       </c>
       <c r="D470" t="n">
-        <v>14.2</v>
+        <v>6.31</v>
       </c>
       <c r="E470" t="n">
         <v>7.89</v>
@@ -59736,7 +59764,7 @@
         <v>14.28</v>
       </c>
       <c r="D471" t="n">
-        <v>14.28</v>
+        <v>6.35</v>
       </c>
       <c r="E471" t="n">
         <v>7.93</v>
@@ -59872,7 +59900,7 @@
         <v>14.07</v>
       </c>
       <c r="D472" t="n">
-        <v>14.07</v>
+        <v>6.21</v>
       </c>
       <c r="E472" t="n">
         <v>7.86</v>
@@ -60006,7 +60034,7 @@
         <v>14.05</v>
       </c>
       <c r="D473" t="n">
-        <v>14.05</v>
+        <v>6.15</v>
       </c>
       <c r="E473" t="n">
         <v>7.9</v>
@@ -60144,7 +60172,7 @@
         <v>13.82</v>
       </c>
       <c r="D474" t="n">
-        <v>13.82</v>
+        <v>5.95</v>
       </c>
       <c r="E474" t="n">
         <v>7.87</v>
@@ -60284,7 +60312,7 @@
         <v>15.14</v>
       </c>
       <c r="D475" t="n">
-        <v>15.14</v>
+        <v>6.22</v>
       </c>
       <c r="E475" t="n">
         <v>8.92</v>
@@ -60420,7 +60448,7 @@
         <v>14.12</v>
       </c>
       <c r="D476" t="n">
-        <v>14.12</v>
+        <v>5.96</v>
       </c>
       <c r="E476" t="n">
         <v>8.16</v>
@@ -60554,7 +60582,7 @@
         <v>13.31</v>
       </c>
       <c r="D477" t="n">
-        <v>13.31</v>
+        <v>6.14</v>
       </c>
       <c r="E477" t="n">
         <v>7.17</v>
@@ -60690,7 +60718,7 @@
         <v>11.36</v>
       </c>
       <c r="D478" t="n">
-        <v>11.36</v>
+        <v>6.46</v>
       </c>
       <c r="E478" t="n">
         <v>4.9</v>
@@ -60824,7 +60852,7 @@
         <v>9.68</v>
       </c>
       <c r="D479" t="n">
-        <v>9.68</v>
+        <v>6.8</v>
       </c>
       <c r="E479" t="n">
         <v>2.88</v>
@@ -60948,7 +60976,7 @@
         <v>8.51</v>
       </c>
       <c r="D480" t="n">
-        <v>8.51</v>
+        <v>7.08</v>
       </c>
       <c r="E480" t="n">
         <v>1.43</v>
@@ -61058,9 +61086,11 @@
       <c r="B481" t="n">
         <v>2023</v>
       </c>
-      <c r="C481" t="inlineStr"/>
+      <c r="C481" t="n">
+        <v>8.039999999999999</v>
+      </c>
       <c r="D481" t="n">
-        <v>8.039999999999999</v>
+        <v>7.62</v>
       </c>
       <c r="E481" t="n">
         <v>0.42</v>
@@ -61123,10 +61153,10 @@
         <v>2000</v>
       </c>
       <c r="C482" t="n">
-        <v>26.12</v>
+        <v>15.67</v>
       </c>
       <c r="D482" t="n">
-        <v>15.67</v>
+        <v>5.8</v>
       </c>
       <c r="E482" t="n">
         <v>9.869999999999999</v>
@@ -61240,7 +61270,7 @@
         <v>15.23</v>
       </c>
       <c r="D483" t="n">
-        <v>15.23</v>
+        <v>5.76</v>
       </c>
       <c r="E483" t="n">
         <v>9.470000000000001</v>
@@ -61350,7 +61380,7 @@
         <v>15.2</v>
       </c>
       <c r="D484" t="n">
-        <v>15.2</v>
+        <v>5.72</v>
       </c>
       <c r="E484" t="n">
         <v>9.48</v>
@@ -61464,7 +61494,7 @@
         <v>14.68</v>
       </c>
       <c r="D485" t="n">
-        <v>14.68</v>
+        <v>5.52</v>
       </c>
       <c r="E485" t="n">
         <v>9.16</v>
@@ -61578,7 +61608,7 @@
         <v>14.77</v>
       </c>
       <c r="D486" t="n">
-        <v>14.77</v>
+        <v>5.79</v>
       </c>
       <c r="E486" t="n">
         <v>8.98</v>
@@ -61692,7 +61722,7 @@
         <v>14.65</v>
       </c>
       <c r="D487" t="n">
-        <v>14.65</v>
+        <v>5.72</v>
       </c>
       <c r="E487" t="n">
         <v>8.93</v>
@@ -61812,7 +61842,7 @@
         <v>14.59</v>
       </c>
       <c r="D488" t="n">
-        <v>14.59</v>
+        <v>5.73</v>
       </c>
       <c r="E488" t="n">
         <v>8.859999999999999</v>
@@ -61940,7 +61970,7 @@
         <v>14.62</v>
       </c>
       <c r="D489" t="n">
-        <v>14.62</v>
+        <v>5.71</v>
       </c>
       <c r="E489" t="n">
         <v>8.91</v>
@@ -62066,7 +62096,7 @@
         <v>14.71</v>
       </c>
       <c r="D490" t="n">
-        <v>14.71</v>
+        <v>5.72</v>
       </c>
       <c r="E490" t="n">
         <v>8.99</v>
@@ -62196,7 +62226,7 @@
         <v>14.66</v>
       </c>
       <c r="D491" t="n">
-        <v>14.66</v>
+        <v>5.7</v>
       </c>
       <c r="E491" t="n">
         <v>8.960000000000001</v>
@@ -62324,7 +62354,7 @@
         <v>14.71</v>
       </c>
       <c r="D492" t="n">
-        <v>14.71</v>
+        <v>5.73</v>
       </c>
       <c r="E492" t="n">
         <v>8.98</v>
@@ -62458,7 +62488,7 @@
         <v>14.72</v>
       </c>
       <c r="D493" t="n">
-        <v>14.72</v>
+        <v>5.75</v>
       </c>
       <c r="E493" t="n">
         <v>8.970000000000001</v>
@@ -62598,7 +62628,7 @@
         <v>14.66</v>
       </c>
       <c r="D494" t="n">
-        <v>14.66</v>
+        <v>5.81</v>
       </c>
       <c r="E494" t="n">
         <v>8.85</v>
@@ -62738,7 +62768,7 @@
         <v>14.59</v>
       </c>
       <c r="D495" t="n">
-        <v>14.59</v>
+        <v>5.9</v>
       </c>
       <c r="E495" t="n">
         <v>8.69</v>
@@ -62878,7 +62908,7 @@
         <v>14.56</v>
       </c>
       <c r="D496" t="n">
-        <v>14.56</v>
+        <v>5.95</v>
       </c>
       <c r="E496" t="n">
         <v>8.609999999999999</v>
@@ -63012,7 +63042,7 @@
         <v>14.57</v>
       </c>
       <c r="D497" t="n">
-        <v>14.57</v>
+        <v>6</v>
       </c>
       <c r="E497" t="n">
         <v>8.57</v>
@@ -63150,7 +63180,7 @@
         <v>14.57</v>
       </c>
       <c r="D498" t="n">
-        <v>14.57</v>
+        <v>6</v>
       </c>
       <c r="E498" t="n">
         <v>8.57</v>
@@ -63290,7 +63320,7 @@
         <v>14.73</v>
       </c>
       <c r="D499" t="n">
-        <v>14.73</v>
+        <v>6.01</v>
       </c>
       <c r="E499" t="n">
         <v>8.720000000000001</v>
@@ -63426,7 +63456,7 @@
         <v>14.48</v>
       </c>
       <c r="D500" t="n">
-        <v>14.48</v>
+        <v>6.01</v>
       </c>
       <c r="E500" t="n">
         <v>8.470000000000001</v>
@@ -63560,7 +63590,7 @@
         <v>12.87</v>
       </c>
       <c r="D501" t="n">
-        <v>12.87</v>
+        <v>6.11</v>
       </c>
       <c r="E501" t="n">
         <v>6.76</v>
@@ -63696,7 +63726,7 @@
         <v>10.36</v>
       </c>
       <c r="D502" t="n">
-        <v>10.36</v>
+        <v>5.85</v>
       </c>
       <c r="E502" t="n">
         <v>4.51</v>
@@ -63830,7 +63860,7 @@
         <v>9.74</v>
       </c>
       <c r="D503" t="n">
-        <v>9.74</v>
+        <v>6.01</v>
       </c>
       <c r="E503" t="n">
         <v>3.73</v>
@@ -63952,7 +63982,7 @@
         <v>8.6</v>
       </c>
       <c r="D504" t="n">
-        <v>8.6</v>
+        <v>6.16</v>
       </c>
       <c r="E504" t="n">
         <v>2.44</v>
@@ -64116,7 +64146,7 @@
         <v>11.43</v>
       </c>
       <c r="D506" t="n">
-        <v>11.43</v>
+        <v>7.98</v>
       </c>
       <c r="E506" t="n">
         <v>3.45</v>
@@ -64229,10 +64259,10 @@
         <v>2001</v>
       </c>
       <c r="C507" t="n">
-        <v>8.48</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D507" t="n">
-        <v>9.699999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="E507" t="n">
         <v>2.8</v>
@@ -64341,10 +64371,10 @@
         <v>2002</v>
       </c>
       <c r="C508" t="n">
-        <v>9.199999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="D508" t="n">
-        <v>9.359999999999999</v>
+        <v>6.08</v>
       </c>
       <c r="E508" t="n">
         <v>3.28</v>
@@ -64457,10 +64487,10 @@
         <v>2003</v>
       </c>
       <c r="C509" t="n">
-        <v>9.609999999999999</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="D509" t="n">
-        <v>9.890000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="E509" t="n">
         <v>2.69</v>
@@ -64573,10 +64603,10 @@
         <v>2004</v>
       </c>
       <c r="C510" t="n">
-        <v>10.74</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D510" t="n">
-        <v>9.449999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="E510" t="n">
         <v>2.85</v>
@@ -64689,10 +64719,10 @@
         <v>2005</v>
       </c>
       <c r="C511" t="n">
-        <v>9.710000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="D511" t="n">
-        <v>9.4</v>
+        <v>6.4</v>
       </c>
       <c r="E511" t="n">
         <v>3</v>
@@ -64807,10 +64837,10 @@
         <v>2006</v>
       </c>
       <c r="C512" t="n">
-        <v>11.49</v>
+        <v>9.9</v>
       </c>
       <c r="D512" t="n">
-        <v>9.9</v>
+        <v>6.5</v>
       </c>
       <c r="E512" t="n">
         <v>3.4</v>
@@ -64933,10 +64963,10 @@
         <v>2007</v>
       </c>
       <c r="C513" t="n">
-        <v>13.88</v>
+        <v>10.1</v>
       </c>
       <c r="D513" t="n">
-        <v>10.1</v>
+        <v>6.3</v>
       </c>
       <c r="E513" t="n">
         <v>3.8</v>
@@ -65057,10 +65087,10 @@
         <v>2008</v>
       </c>
       <c r="C514" t="n">
-        <v>13.33</v>
+        <v>10.1</v>
       </c>
       <c r="D514" t="n">
-        <v>10.1</v>
+        <v>6.3</v>
       </c>
       <c r="E514" t="n">
         <v>3.8</v>
@@ -65185,10 +65215,10 @@
         <v>2009</v>
       </c>
       <c r="C515" t="n">
-        <v>12.5</v>
+        <v>9.9</v>
       </c>
       <c r="D515" t="n">
-        <v>9.9</v>
+        <v>6.2</v>
       </c>
       <c r="E515" t="n">
         <v>3.7</v>
@@ -65313,10 +65343,10 @@
         <v>2010</v>
       </c>
       <c r="C516" t="n">
-        <v>19.1</v>
+        <v>9.17</v>
       </c>
       <c r="D516" t="n">
-        <v>9.17</v>
+        <v>6.4</v>
       </c>
       <c r="E516" t="n">
         <v>2.77</v>
@@ -65452,7 +65482,7 @@
         <v>9.880000000000001</v>
       </c>
       <c r="D517" t="n">
-        <v>9.880000000000001</v>
+        <v>6.71</v>
       </c>
       <c r="E517" t="n">
         <v>3.17</v>
@@ -65592,7 +65622,7 @@
         <v>10.86</v>
       </c>
       <c r="D518" t="n">
-        <v>10.86</v>
+        <v>6.86</v>
       </c>
       <c r="E518" t="n">
         <v>4</v>
@@ -65732,7 +65762,7 @@
         <v>10.37</v>
       </c>
       <c r="D519" t="n">
-        <v>10.37</v>
+        <v>6.77</v>
       </c>
       <c r="E519" t="n">
         <v>3.6</v>
@@ -65872,7 +65902,7 @@
         <v>10.67</v>
       </c>
       <c r="D520" t="n">
-        <v>10.67</v>
+        <v>7.05</v>
       </c>
       <c r="E520" t="n">
         <v>3.62</v>
@@ -66008,7 +66038,7 @@
         <v>11.05</v>
       </c>
       <c r="D521" t="n">
-        <v>11.05</v>
+        <v>7.19</v>
       </c>
       <c r="E521" t="n">
         <v>3.86</v>
@@ -66148,7 +66178,7 @@
         <v>11.77</v>
       </c>
       <c r="D522" t="n">
-        <v>11.77</v>
+        <v>7.24</v>
       </c>
       <c r="E522" t="n">
         <v>4.53</v>
@@ -66288,7 +66318,7 @@
         <v>11.18</v>
       </c>
       <c r="D523" t="n">
-        <v>11.18</v>
+        <v>7.27</v>
       </c>
       <c r="E523" t="n">
         <v>3.91</v>
@@ -66426,7 +66456,7 @@
         <v>11.02</v>
       </c>
       <c r="D524" t="n">
-        <v>11.02</v>
+        <v>7.54</v>
       </c>
       <c r="E524" t="n">
         <v>3.48</v>
@@ -66559,10 +66589,10 @@
         <v>2019</v>
       </c>
       <c r="C525" t="n">
-        <v>9.789999999999999</v>
+        <v>10.48</v>
       </c>
       <c r="D525" t="n">
-        <v>10.48</v>
+        <v>7.57</v>
       </c>
       <c r="E525" t="n">
         <v>2.91</v>
@@ -66697,10 +66727,10 @@
         <v>2020</v>
       </c>
       <c r="C526" t="n">
-        <v>8.41</v>
+        <v>7.47</v>
       </c>
       <c r="D526" t="n">
-        <v>7.47</v>
+        <v>7.7</v>
       </c>
       <c r="E526" t="n">
         <v>-0.23</v>
@@ -66831,10 +66861,10 @@
         <v>2021</v>
       </c>
       <c r="C527" t="n">
-        <v>6.71</v>
+        <v>6.49</v>
       </c>
       <c r="D527" t="n">
-        <v>6.49</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E527" t="n">
         <v>-1.55</v>
@@ -66958,7 +66988,7 @@
         <v>5.98</v>
       </c>
       <c r="D528" t="n">
-        <v>5.98</v>
+        <v>8.09</v>
       </c>
       <c r="E528" t="n">
         <v>-2.11</v>
@@ -67066,9 +67096,11 @@
       <c r="B529" t="n">
         <v>2023</v>
       </c>
-      <c r="C529" t="inlineStr"/>
+      <c r="C529" t="n">
+        <v>5.58</v>
+      </c>
       <c r="D529" t="n">
-        <v>5.58</v>
+        <v>8.9</v>
       </c>
       <c r="E529" t="n">
         <v>-3.32</v>
@@ -67134,7 +67166,7 @@
         <v>12.1</v>
       </c>
       <c r="D530" t="n">
-        <v>12.1</v>
+        <v>7</v>
       </c>
       <c r="E530" t="n">
         <v>5.1</v>
@@ -67252,7 +67284,7 @@
         <v>11.16</v>
       </c>
       <c r="D531" t="n">
-        <v>11.16</v>
+        <v>6.79</v>
       </c>
       <c r="E531" t="n">
         <v>4.37</v>
@@ -67368,7 +67400,7 @@
         <v>10.44</v>
       </c>
       <c r="D532" t="n">
-        <v>10.44</v>
+        <v>6.55</v>
       </c>
       <c r="E532" t="n">
         <v>3.89</v>
@@ -67488,7 +67520,7 @@
         <v>9.18</v>
       </c>
       <c r="D533" t="n">
-        <v>9.18</v>
+        <v>6.06</v>
       </c>
       <c r="E533" t="n">
         <v>3.12</v>
@@ -67608,7 +67640,7 @@
         <v>9.050000000000001</v>
       </c>
       <c r="D534" t="n">
-        <v>9.050000000000001</v>
+        <v>6.27</v>
       </c>
       <c r="E534" t="n">
         <v>2.78</v>
@@ -67728,7 +67760,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="D535" t="n">
-        <v>9.699999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="E535" t="n">
         <v>2.9</v>
@@ -67852,7 +67884,7 @@
         <v>9.140000000000001</v>
       </c>
       <c r="D536" t="n">
-        <v>9.140000000000001</v>
+        <v>6.28</v>
       </c>
       <c r="E536" t="n">
         <v>2.86</v>
@@ -67978,7 +68010,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="D537" t="n">
-        <v>9.210000000000001</v>
+        <v>6.29</v>
       </c>
       <c r="E537" t="n">
         <v>2.92</v>
@@ -68104,7 +68136,7 @@
         <v>9.539999999999999</v>
       </c>
       <c r="D538" t="n">
-        <v>9.539999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="E538" t="n">
         <v>2.39</v>
@@ -68234,7 +68266,7 @@
         <v>9.15</v>
       </c>
       <c r="D539" t="n">
-        <v>9.15</v>
+        <v>6.43</v>
       </c>
       <c r="E539" t="n">
         <v>2.72</v>
@@ -68364,7 +68396,7 @@
         <v>8.93</v>
       </c>
       <c r="D540" t="n">
-        <v>8.93</v>
+        <v>6.62</v>
       </c>
       <c r="E540" t="n">
         <v>2.31</v>
@@ -68500,7 +68532,7 @@
         <v>9.789999999999999</v>
       </c>
       <c r="D541" t="n">
-        <v>9.789999999999999</v>
+        <v>6.81</v>
       </c>
       <c r="E541" t="n">
         <v>2.98</v>
@@ -68640,7 +68672,7 @@
         <v>9.890000000000001</v>
       </c>
       <c r="D542" t="n">
-        <v>9.890000000000001</v>
+        <v>6.92</v>
       </c>
       <c r="E542" t="n">
         <v>2.97</v>
@@ -68780,7 +68812,7 @@
         <v>9.9</v>
       </c>
       <c r="D543" t="n">
-        <v>9.9</v>
+        <v>6.9</v>
       </c>
       <c r="E543" t="n">
         <v>3</v>
@@ -68916,7 +68948,7 @@
         <v>10.22</v>
       </c>
       <c r="D544" t="n">
-        <v>10.22</v>
+        <v>7.02</v>
       </c>
       <c r="E544" t="n">
         <v>3.2</v>
@@ -69050,7 +69082,7 @@
         <v>10.3</v>
       </c>
       <c r="D545" t="n">
-        <v>10.3</v>
+        <v>6.94</v>
       </c>
       <c r="E545" t="n">
         <v>3.36</v>
@@ -69188,7 +69220,7 @@
         <v>10.48</v>
       </c>
       <c r="D546" t="n">
-        <v>10.48</v>
+        <v>6.99</v>
       </c>
       <c r="E546" t="n">
         <v>3.49</v>
@@ -69328,7 +69360,7 @@
         <v>11.26</v>
       </c>
       <c r="D547" t="n">
-        <v>11.26</v>
+        <v>7.03</v>
       </c>
       <c r="E547" t="n">
         <v>4.23</v>
@@ -69464,7 +69496,7 @@
         <v>11.05</v>
       </c>
       <c r="D548" t="n">
-        <v>11.05</v>
+        <v>7.01</v>
       </c>
       <c r="E548" t="n">
         <v>4.04</v>
@@ -69598,7 +69630,7 @@
         <v>10.7</v>
       </c>
       <c r="D549" t="n">
-        <v>10.7</v>
+        <v>7.09</v>
       </c>
       <c r="E549" t="n">
         <v>3.61</v>
@@ -69736,7 +69768,7 @@
         <v>7.6</v>
       </c>
       <c r="D550" t="n">
-        <v>7.6</v>
+        <v>8.48</v>
       </c>
       <c r="E550" t="n">
         <v>-0.88</v>
@@ -69870,7 +69902,7 @@
         <v>6.85</v>
       </c>
       <c r="D551" t="n">
-        <v>6.85</v>
+        <v>8.74</v>
       </c>
       <c r="E551" t="n">
         <v>-1.89</v>
@@ -69994,7 +70026,7 @@
         <v>6.39</v>
       </c>
       <c r="D552" t="n">
-        <v>6.39</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="E552" t="n">
         <v>-2.65</v>
@@ -70099,7 +70131,9 @@
         <v>2023</v>
       </c>
       <c r="C553" t="inlineStr"/>
-      <c r="D553" t="inlineStr"/>
+      <c r="D553" t="n">
+        <v>9.44</v>
+      </c>
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="inlineStr"/>
       <c r="G553" t="inlineStr"/>
@@ -70160,7 +70194,7 @@
         <v>20.59</v>
       </c>
       <c r="D554" t="n">
-        <v>20.59</v>
+        <v>7.53</v>
       </c>
       <c r="E554" t="n">
         <v>13.06</v>
@@ -70276,7 +70310,7 @@
         <v>18.56</v>
       </c>
       <c r="D555" t="n">
-        <v>18.56</v>
+        <v>7.23</v>
       </c>
       <c r="E555" t="n">
         <v>11.33</v>
@@ -70388,7 +70422,7 @@
         <v>17.96</v>
       </c>
       <c r="D556" t="n">
-        <v>17.96</v>
+        <v>7.21</v>
       </c>
       <c r="E556" t="n">
         <v>10.75</v>
@@ -70504,7 +70538,7 @@
         <v>15.91</v>
       </c>
       <c r="D557" t="n">
-        <v>15.91</v>
+        <v>6.87</v>
       </c>
       <c r="E557" t="n">
         <v>9.039999999999999</v>
@@ -70620,7 +70654,7 @@
         <v>15.08</v>
       </c>
       <c r="D558" t="n">
-        <v>15.08</v>
+        <v>6.35</v>
       </c>
       <c r="E558" t="n">
         <v>8.73</v>
@@ -70736,7 +70770,7 @@
         <v>14.59</v>
       </c>
       <c r="D559" t="n">
-        <v>14.59</v>
+        <v>7.21</v>
       </c>
       <c r="E559" t="n">
         <v>7.38</v>
@@ -70854,7 +70888,7 @@
         <v>13.97</v>
       </c>
       <c r="D560" t="n">
-        <v>13.97</v>
+        <v>6.71</v>
       </c>
       <c r="E560" t="n">
         <v>7.26</v>
@@ -70976,7 +71010,7 @@
         <v>13.28</v>
       </c>
       <c r="D561" t="n">
-        <v>13.28</v>
+        <v>6.6</v>
       </c>
       <c r="E561" t="n">
         <v>6.68</v>
@@ -71100,7 +71134,7 @@
         <v>13.49</v>
       </c>
       <c r="D562" t="n">
-        <v>13.49</v>
+        <v>6.77</v>
       </c>
       <c r="E562" t="n">
         <v>6.72</v>
@@ -71228,7 +71262,7 @@
         <v>13.65</v>
       </c>
       <c r="D563" t="n">
-        <v>13.65</v>
+        <v>6.69</v>
       </c>
       <c r="E563" t="n">
         <v>6.96</v>
@@ -71356,7 +71390,7 @@
         <v>13.96</v>
       </c>
       <c r="D564" t="n">
-        <v>13.96</v>
+        <v>6.55</v>
       </c>
       <c r="E564" t="n">
         <v>7.41</v>
@@ -71494,7 +71528,7 @@
         <v>13.31</v>
       </c>
       <c r="D565" t="n">
-        <v>13.31</v>
+        <v>6.93</v>
       </c>
       <c r="E565" t="n">
         <v>6.38</v>
@@ -71634,7 +71668,7 @@
         <v>13.27</v>
       </c>
       <c r="D566" t="n">
-        <v>13.27</v>
+        <v>6.96</v>
       </c>
       <c r="E566" t="n">
         <v>6.31</v>
@@ -71774,7 +71808,7 @@
         <v>13.05</v>
       </c>
       <c r="D567" t="n">
-        <v>13.05</v>
+        <v>7.15</v>
       </c>
       <c r="E567" t="n">
         <v>5.9</v>
@@ -71908,7 +71942,7 @@
         <v>12.98</v>
       </c>
       <c r="D568" t="n">
-        <v>12.98</v>
+        <v>7.18</v>
       </c>
       <c r="E568" t="n">
         <v>5.8</v>
@@ -72042,7 +72076,7 @@
         <v>13</v>
       </c>
       <c r="D569" t="n">
-        <v>13</v>
+        <v>7.2</v>
       </c>
       <c r="E569" t="n">
         <v>5.8</v>
@@ -72182,7 +72216,7 @@
         <v>13.43</v>
       </c>
       <c r="D570" t="n">
-        <v>13.43</v>
+        <v>6.93</v>
       </c>
       <c r="E570" t="n">
         <v>6.5</v>
@@ -72322,7 +72356,7 @@
         <v>13.98</v>
       </c>
       <c r="D571" t="n">
-        <v>13.98</v>
+        <v>6.88</v>
       </c>
       <c r="E571" t="n">
         <v>7.1</v>
@@ -72458,7 +72492,7 @@
         <v>13.9</v>
       </c>
       <c r="D572" t="n">
-        <v>13.9</v>
+        <v>6.85</v>
       </c>
       <c r="E572" t="n">
         <v>7.05</v>
@@ -72594,7 +72628,7 @@
         <v>13.65</v>
       </c>
       <c r="D573" t="n">
-        <v>13.65</v>
+        <v>6.95</v>
       </c>
       <c r="E573" t="n">
         <v>6.7</v>
@@ -72732,7 +72766,7 @@
         <v>13.7</v>
       </c>
       <c r="D574" t="n">
-        <v>13.7</v>
+        <v>7.17</v>
       </c>
       <c r="E574" t="n">
         <v>6.53</v>
@@ -72866,7 +72900,7 @@
         <v>12.17</v>
       </c>
       <c r="D575" t="n">
-        <v>12.17</v>
+        <v>7.19</v>
       </c>
       <c r="E575" t="n">
         <v>4.98</v>
@@ -72992,7 +73026,7 @@
         <v>11.03</v>
       </c>
       <c r="D576" t="n">
-        <v>11.03</v>
+        <v>7.32</v>
       </c>
       <c r="E576" t="n">
         <v>3.71</v>
@@ -73100,9 +73134,11 @@
       <c r="B577" t="n">
         <v>2023</v>
       </c>
-      <c r="C577" t="inlineStr"/>
+      <c r="C577" t="n">
+        <v>10.65</v>
+      </c>
       <c r="D577" t="n">
-        <v>10.65</v>
+        <v>7.77</v>
       </c>
       <c r="E577" t="n">
         <v>2.88</v>
@@ -73163,10 +73199,10 @@
         <v>2000</v>
       </c>
       <c r="C578" t="n">
-        <v>17.06</v>
+        <v>19.05</v>
       </c>
       <c r="D578" t="n">
-        <v>19.05</v>
+        <v>7.57</v>
       </c>
       <c r="E578" t="n">
         <v>11.48</v>
@@ -73280,7 +73316,7 @@
         <v>18.51</v>
       </c>
       <c r="D579" t="n">
-        <v>18.51</v>
+        <v>7.57</v>
       </c>
       <c r="E579" t="n">
         <v>10.94</v>
@@ -73390,7 +73426,7 @@
         <v>17.9</v>
       </c>
       <c r="D580" t="n">
-        <v>17.9</v>
+        <v>7.3</v>
       </c>
       <c r="E580" t="n">
         <v>10.6</v>
@@ -73504,7 +73540,7 @@
         <v>17</v>
       </c>
       <c r="D581" t="n">
-        <v>17</v>
+        <v>7.2</v>
       </c>
       <c r="E581" t="n">
         <v>9.800000000000001</v>
@@ -73618,7 +73654,7 @@
         <v>15.6</v>
       </c>
       <c r="D582" t="n">
-        <v>15.6</v>
+        <v>6.6</v>
       </c>
       <c r="E582" t="n">
         <v>9</v>
@@ -73732,7 +73768,7 @@
         <v>14.72</v>
       </c>
       <c r="D583" t="n">
-        <v>14.72</v>
+        <v>6.75</v>
       </c>
       <c r="E583" t="n">
         <v>7.97</v>
@@ -73850,7 +73886,7 @@
         <v>13.2</v>
       </c>
       <c r="D584" t="n">
-        <v>13.2</v>
+        <v>6.3</v>
       </c>
       <c r="E584" t="n">
         <v>6.9</v>
@@ -73974,7 +74010,7 @@
         <v>13.08</v>
       </c>
       <c r="D585" t="n">
-        <v>13.08</v>
+        <v>6.22</v>
       </c>
       <c r="E585" t="n">
         <v>6.86</v>
@@ -74098,7 +74134,7 @@
         <v>12.63</v>
       </c>
       <c r="D586" t="n">
-        <v>12.63</v>
+        <v>6.31</v>
       </c>
       <c r="E586" t="n">
         <v>6.32</v>
@@ -74226,7 +74262,7 @@
         <v>12.53</v>
       </c>
       <c r="D587" t="n">
-        <v>12.53</v>
+        <v>6.45</v>
       </c>
       <c r="E587" t="n">
         <v>6.08</v>
@@ -74354,7 +74390,7 @@
         <v>13.1</v>
       </c>
       <c r="D588" t="n">
-        <v>13.1</v>
+        <v>6.56</v>
       </c>
       <c r="E588" t="n">
         <v>6.54</v>
@@ -74490,7 +74526,7 @@
         <v>12.71</v>
       </c>
       <c r="D589" t="n">
-        <v>12.71</v>
+        <v>6.36</v>
       </c>
       <c r="E589" t="n">
         <v>6.35</v>
@@ -74630,7 +74666,7 @@
         <v>12.63</v>
       </c>
       <c r="D590" t="n">
-        <v>12.63</v>
+        <v>6.41</v>
       </c>
       <c r="E590" t="n">
         <v>6.22</v>
@@ -74770,7 +74806,7 @@
         <v>12.6</v>
       </c>
       <c r="D591" t="n">
-        <v>12.6</v>
+        <v>6.43</v>
       </c>
       <c r="E591" t="n">
         <v>6.17</v>
@@ -74906,7 +74942,7 @@
         <v>12.65</v>
       </c>
       <c r="D592" t="n">
-        <v>12.65</v>
+        <v>6.45</v>
       </c>
       <c r="E592" t="n">
         <v>6.2</v>
@@ -75040,7 +75076,7 @@
         <v>12.88</v>
       </c>
       <c r="D593" t="n">
-        <v>12.88</v>
+        <v>6.48</v>
       </c>
       <c r="E593" t="n">
         <v>6.4</v>
@@ -75178,7 +75214,7 @@
         <v>13.16</v>
       </c>
       <c r="D594" t="n">
-        <v>13.16</v>
+        <v>6.55</v>
       </c>
       <c r="E594" t="n">
         <v>6.61</v>
@@ -75318,7 +75354,7 @@
         <v>13.53</v>
       </c>
       <c r="D595" t="n">
-        <v>13.53</v>
+        <v>6.68</v>
       </c>
       <c r="E595" t="n">
         <v>6.85</v>
@@ -75454,7 +75490,7 @@
         <v>13.19</v>
       </c>
       <c r="D596" t="n">
-        <v>13.19</v>
+        <v>6.32</v>
       </c>
       <c r="E596" t="n">
         <v>6.87</v>
@@ -75586,7 +75622,7 @@
         <v>12.63</v>
       </c>
       <c r="D597" t="n">
-        <v>12.63</v>
+        <v>6.2</v>
       </c>
       <c r="E597" t="n">
         <v>6.43</v>
@@ -75722,7 +75758,7 @@
         <v>10.96</v>
       </c>
       <c r="D598" t="n">
-        <v>10.96</v>
+        <v>7.92</v>
       </c>
       <c r="E598" t="n">
         <v>3.04</v>
@@ -75856,7 +75892,7 @@
         <v>9.35</v>
       </c>
       <c r="D599" t="n">
-        <v>9.35</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="E599" t="n">
         <v>1.23</v>
@@ -75980,7 +76016,7 @@
         <v>8.140000000000001</v>
       </c>
       <c r="D600" t="n">
-        <v>8.140000000000001</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="E600" t="n">
         <v>-0.07000000000000001</v>
@@ -76143,10 +76179,10 @@
         <v>2000</v>
       </c>
       <c r="C602" t="n">
-        <v>17.7</v>
+        <v>19.5</v>
       </c>
       <c r="D602" t="n">
-        <v>19.5</v>
+        <v>6.6</v>
       </c>
       <c r="E602" t="n">
         <v>12.9</v>
@@ -76258,7 +76294,7 @@
         <v>18.6</v>
       </c>
       <c r="D603" t="n">
-        <v>18.6</v>
+        <v>6.5</v>
       </c>
       <c r="E603" t="n">
         <v>12.1</v>
@@ -76361,10 +76397,10 @@
         <v>2002</v>
       </c>
       <c r="C604" t="n">
-        <v>18.83</v>
+        <v>18.8</v>
       </c>
       <c r="D604" t="n">
-        <v>18.8</v>
+        <v>6.07</v>
       </c>
       <c r="E604" t="n">
         <v>12.76</v>
@@ -76472,7 +76508,7 @@
         <v>17.4</v>
       </c>
       <c r="D605" t="n">
-        <v>17.4</v>
+        <v>6.3</v>
       </c>
       <c r="E605" t="n">
         <v>11.1</v>
@@ -76580,7 +76616,7 @@
         <v>17.4</v>
       </c>
       <c r="D606" t="n">
-        <v>17.4</v>
+        <v>6.2</v>
       </c>
       <c r="E606" t="n">
         <v>11.2</v>
@@ -76687,10 +76723,10 @@
         <v>2005</v>
       </c>
       <c r="C607" t="n">
-        <v>17.94</v>
+        <v>17.9</v>
       </c>
       <c r="D607" t="n">
-        <v>17.9</v>
+        <v>7.15</v>
       </c>
       <c r="E607" t="n">
         <v>10.79</v>
@@ -76804,7 +76840,7 @@
         <v>17.4</v>
       </c>
       <c r="D608" t="n">
-        <v>17.4</v>
+        <v>5.7</v>
       </c>
       <c r="E608" t="n">
         <v>11.7</v>
@@ -76918,7 +76954,7 @@
         <v>16.4</v>
       </c>
       <c r="D609" t="n">
-        <v>16.4</v>
+        <v>5.1</v>
       </c>
       <c r="E609" t="n">
         <v>11.3</v>
@@ -77034,7 +77070,7 @@
         <v>15.5</v>
       </c>
       <c r="D610" t="n">
-        <v>15.5</v>
+        <v>5.2</v>
       </c>
       <c r="E610" t="n">
         <v>10.3</v>
@@ -77151,10 +77187,10 @@
         <v>2009</v>
       </c>
       <c r="C611" t="n">
-        <v>15.31</v>
+        <v>15.3</v>
       </c>
       <c r="D611" t="n">
-        <v>15.3</v>
+        <v>5.07</v>
       </c>
       <c r="E611" t="n">
         <v>10.24</v>
@@ -77269,10 +77305,10 @@
         <v>2010</v>
       </c>
       <c r="C612" t="n">
-        <v>15.8</v>
+        <v>15.23</v>
       </c>
       <c r="D612" t="n">
-        <v>15.23</v>
+        <v>5.55</v>
       </c>
       <c r="E612" t="n">
         <v>10.25</v>
@@ -77402,7 +77438,7 @@
         <v>15.39</v>
       </c>
       <c r="D613" t="n">
-        <v>15.39</v>
+        <v>5.13</v>
       </c>
       <c r="E613" t="n">
         <v>10.26</v>
@@ -77536,7 +77572,7 @@
         <v>15.48</v>
       </c>
       <c r="D614" t="n">
-        <v>15.48</v>
+        <v>5.21</v>
       </c>
       <c r="E614" t="n">
         <v>10.27</v>
@@ -77674,7 +77710,7 @@
         <v>15.77</v>
       </c>
       <c r="D615" t="n">
-        <v>15.77</v>
+        <v>5.39</v>
       </c>
       <c r="E615" t="n">
         <v>10.38</v>
@@ -77806,7 +77842,7 @@
         <v>15.76</v>
       </c>
       <c r="D616" t="n">
-        <v>15.76</v>
+        <v>5.21</v>
       </c>
       <c r="E616" t="n">
         <v>10.55</v>
@@ -77936,7 +77972,7 @@
         <v>15.75</v>
       </c>
       <c r="D617" t="n">
-        <v>15.75</v>
+        <v>5.1</v>
       </c>
       <c r="E617" t="n">
         <v>10.65</v>
@@ -78070,7 +78106,7 @@
         <v>15.79</v>
       </c>
       <c r="D618" t="n">
-        <v>15.79</v>
+        <v>5.11</v>
       </c>
       <c r="E618" t="n">
         <v>10.68</v>
@@ -78206,7 +78242,7 @@
         <v>16</v>
       </c>
       <c r="D619" t="n">
-        <v>16</v>
+        <v>4.95</v>
       </c>
       <c r="E619" t="n">
         <v>11.05</v>
@@ -78340,7 +78376,7 @@
         <v>15.22</v>
       </c>
       <c r="D620" t="n">
-        <v>15.22</v>
+        <v>4.58</v>
       </c>
       <c r="E620" t="n">
         <v>10.64</v>
@@ -78470,7 +78506,7 @@
         <v>14.6</v>
       </c>
       <c r="D621" t="n">
-        <v>14.6</v>
+        <v>4.46</v>
       </c>
       <c r="E621" t="n">
         <v>10.14</v>
@@ -78602,7 +78638,7 @@
         <v>13.96</v>
       </c>
       <c r="D622" t="n">
-        <v>13.96</v>
+        <v>5.37</v>
       </c>
       <c r="E622" t="n">
         <v>8.59</v>
@@ -78734,7 +78770,7 @@
         <v>14.17</v>
       </c>
       <c r="D623" t="n">
-        <v>14.17</v>
+        <v>5.47</v>
       </c>
       <c r="E623" t="n">
         <v>8.699999999999999</v>
@@ -78854,7 +78890,7 @@
         <v>14.24</v>
       </c>
       <c r="D624" t="n">
-        <v>14.24</v>
+        <v>5.48</v>
       </c>
       <c r="E624" t="n">
         <v>8.76</v>
@@ -79018,7 +79054,7 @@
         <v>12.5</v>
       </c>
       <c r="D626" t="n">
-        <v>12.5</v>
+        <v>6.36</v>
       </c>
       <c r="E626" t="n">
         <v>6.14</v>
@@ -79136,7 +79172,7 @@
         <v>10.5</v>
       </c>
       <c r="D627" t="n">
-        <v>10.5</v>
+        <v>6.34</v>
       </c>
       <c r="E627" t="n">
         <v>4.16</v>
@@ -79252,7 +79288,7 @@
         <v>10.48</v>
       </c>
       <c r="D628" t="n">
-        <v>10.48</v>
+        <v>6.36</v>
       </c>
       <c r="E628" t="n">
         <v>4.12</v>
@@ -79372,7 +79408,7 @@
         <v>10.67</v>
       </c>
       <c r="D629" t="n">
-        <v>10.67</v>
+        <v>6.38</v>
       </c>
       <c r="E629" t="n">
         <v>4.29</v>
@@ -79492,7 +79528,7 @@
         <v>10.59</v>
       </c>
       <c r="D630" t="n">
-        <v>10.59</v>
+        <v>6.33</v>
       </c>
       <c r="E630" t="n">
         <v>4.26</v>
@@ -79612,7 +79648,7 @@
         <v>10.02</v>
       </c>
       <c r="D631" t="n">
-        <v>10.02</v>
+        <v>6.01</v>
       </c>
       <c r="E631" t="n">
         <v>4.01</v>
@@ -79734,7 +79770,7 @@
         <v>10.19</v>
       </c>
       <c r="D632" t="n">
-        <v>10.19</v>
+        <v>6.15</v>
       </c>
       <c r="E632" t="n">
         <v>4.04</v>
@@ -79860,7 +79896,7 @@
         <v>10.21</v>
       </c>
       <c r="D633" t="n">
-        <v>10.21</v>
+        <v>6.16</v>
       </c>
       <c r="E633" t="n">
         <v>4.05</v>
@@ -79986,7 +80022,7 @@
         <v>10.29</v>
       </c>
       <c r="D634" t="n">
-        <v>10.29</v>
+        <v>6.21</v>
       </c>
       <c r="E634" t="n">
         <v>4.08</v>
@@ -80116,7 +80152,7 @@
         <v>10.24</v>
       </c>
       <c r="D635" t="n">
-        <v>10.24</v>
+        <v>6.24</v>
       </c>
       <c r="E635" t="n">
         <v>4</v>
@@ -80246,7 +80282,7 @@
         <v>9.73</v>
       </c>
       <c r="D636" t="n">
-        <v>9.73</v>
+        <v>6.01</v>
       </c>
       <c r="E636" t="n">
         <v>3.72</v>
@@ -80382,7 +80418,7 @@
         <v>9.75</v>
       </c>
       <c r="D637" t="n">
-        <v>9.75</v>
+        <v>6.06</v>
       </c>
       <c r="E637" t="n">
         <v>3.69</v>
@@ -80522,7 +80558,7 @@
         <v>10.12</v>
       </c>
       <c r="D638" t="n">
-        <v>10.12</v>
+        <v>6.24</v>
       </c>
       <c r="E638" t="n">
         <v>3.88</v>
@@ -80662,7 +80698,7 @@
         <v>10.01</v>
       </c>
       <c r="D639" t="n">
-        <v>10.01</v>
+        <v>6.15</v>
       </c>
       <c r="E639" t="n">
         <v>3.86</v>
@@ -80798,7 +80834,7 @@
         <v>10.13</v>
       </c>
       <c r="D640" t="n">
-        <v>10.13</v>
+        <v>6.26</v>
       </c>
       <c r="E640" t="n">
         <v>3.87</v>
@@ -80932,7 +80968,7 @@
         <v>10.1</v>
       </c>
       <c r="D641" t="n">
-        <v>10.1</v>
+        <v>6.28</v>
       </c>
       <c r="E641" t="n">
         <v>3.82</v>
@@ -81070,7 +81106,7 @@
         <v>10.64</v>
       </c>
       <c r="D642" t="n">
-        <v>10.64</v>
+        <v>6.23</v>
       </c>
       <c r="E642" t="n">
         <v>4.41</v>
@@ -81210,7 +81246,7 @@
         <v>11.11</v>
       </c>
       <c r="D643" t="n">
-        <v>11.11</v>
+        <v>6.24</v>
       </c>
       <c r="E643" t="n">
         <v>4.87</v>
@@ -81346,7 +81382,7 @@
         <v>10.67</v>
       </c>
       <c r="D644" t="n">
-        <v>10.67</v>
+        <v>6.24</v>
       </c>
       <c r="E644" t="n">
         <v>4.43</v>
@@ -81480,7 +81516,7 @@
         <v>10.55</v>
       </c>
       <c r="D645" t="n">
-        <v>10.55</v>
+        <v>6.28</v>
       </c>
       <c r="E645" t="n">
         <v>4.27</v>
@@ -81616,7 +81652,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="D646" t="n">
-        <v>8.949999999999999</v>
+        <v>7.11</v>
       </c>
       <c r="E646" t="n">
         <v>1.84</v>
@@ -81750,7 +81786,7 @@
         <v>7.89</v>
       </c>
       <c r="D647" t="n">
-        <v>7.89</v>
+        <v>7.38</v>
       </c>
       <c r="E647" t="n">
         <v>0.51</v>
@@ -81874,7 +81910,7 @@
         <v>7.36</v>
       </c>
       <c r="D648" t="n">
-        <v>7.36</v>
+        <v>7.64</v>
       </c>
       <c r="E648" t="n">
         <v>-0.28</v>
@@ -82040,7 +82076,7 @@
         <v>14.38</v>
       </c>
       <c r="D650" t="n">
-        <v>14.38</v>
+        <v>6.41</v>
       </c>
       <c r="E650" t="n">
         <v>7.97</v>
@@ -82160,7 +82196,7 @@
         <v>13.58</v>
       </c>
       <c r="D651" t="n">
-        <v>13.58</v>
+        <v>6.43</v>
       </c>
       <c r="E651" t="n">
         <v>7.15</v>
@@ -82278,7 +82314,7 @@
         <v>13.16</v>
       </c>
       <c r="D652" t="n">
-        <v>13.16</v>
+        <v>6.45</v>
       </c>
       <c r="E652" t="n">
         <v>6.71</v>
@@ -82400,7 +82436,7 @@
         <v>12.58</v>
       </c>
       <c r="D653" t="n">
-        <v>12.58</v>
+        <v>6.46</v>
       </c>
       <c r="E653" t="n">
         <v>6.12</v>
@@ -82522,7 +82558,7 @@
         <v>12.43</v>
       </c>
       <c r="D654" t="n">
-        <v>12.43</v>
+        <v>6.52</v>
       </c>
       <c r="E654" t="n">
         <v>5.91</v>
@@ -82644,7 +82680,7 @@
         <v>12.59</v>
       </c>
       <c r="D655" t="n">
-        <v>12.59</v>
+        <v>6.57</v>
       </c>
       <c r="E655" t="n">
         <v>6.02</v>
@@ -82768,7 +82804,7 @@
         <v>12.86</v>
       </c>
       <c r="D656" t="n">
-        <v>12.86</v>
+        <v>6.62</v>
       </c>
       <c r="E656" t="n">
         <v>6.24</v>
@@ -82894,7 +82930,7 @@
         <v>13.14</v>
       </c>
       <c r="D657" t="n">
-        <v>13.14</v>
+        <v>6.65</v>
       </c>
       <c r="E657" t="n">
         <v>6.49</v>
@@ -83020,7 +83056,7 @@
         <v>13.22</v>
       </c>
       <c r="D658" t="n">
-        <v>13.22</v>
+        <v>6.68</v>
       </c>
       <c r="E658" t="n">
         <v>6.54</v>
@@ -83150,7 +83186,7 @@
         <v>13.32</v>
       </c>
       <c r="D659" t="n">
-        <v>13.32</v>
+        <v>6.71</v>
       </c>
       <c r="E659" t="n">
         <v>6.61</v>
@@ -83280,7 +83316,7 @@
         <v>12.05</v>
       </c>
       <c r="D660" t="n">
-        <v>12.05</v>
+        <v>6.02</v>
       </c>
       <c r="E660" t="n">
         <v>6.03</v>
@@ -83416,7 +83452,7 @@
         <v>12.08</v>
       </c>
       <c r="D661" t="n">
-        <v>12.08</v>
+        <v>6.03</v>
       </c>
       <c r="E661" t="n">
         <v>6.05</v>
@@ -83556,7 +83592,7 @@
         <v>12.11</v>
       </c>
       <c r="D662" t="n">
-        <v>12.11</v>
+        <v>6.05</v>
       </c>
       <c r="E662" t="n">
         <v>6.06</v>
@@ -83696,7 +83732,7 @@
         <v>12.16</v>
       </c>
       <c r="D663" t="n">
-        <v>12.16</v>
+        <v>6.08</v>
       </c>
       <c r="E663" t="n">
         <v>6.08</v>
@@ -83832,7 +83868,7 @@
         <v>12.21</v>
       </c>
       <c r="D664" t="n">
-        <v>12.21</v>
+        <v>6.11</v>
       </c>
       <c r="E664" t="n">
         <v>6.1</v>
@@ -83966,7 +84002,7 @@
         <v>12.36</v>
       </c>
       <c r="D665" t="n">
-        <v>12.36</v>
+        <v>6.15</v>
       </c>
       <c r="E665" t="n">
         <v>6.21</v>
@@ -84104,7 +84140,7 @@
         <v>12.18</v>
       </c>
       <c r="D666" t="n">
-        <v>12.18</v>
+        <v>6.18</v>
       </c>
       <c r="E666" t="n">
         <v>6</v>
@@ -84244,7 +84280,7 @@
         <v>12.54</v>
       </c>
       <c r="D667" t="n">
-        <v>12.54</v>
+        <v>6.52</v>
       </c>
       <c r="E667" t="n">
         <v>6.02</v>
@@ -84380,7 +84416,7 @@
         <v>11.07</v>
       </c>
       <c r="D668" t="n">
-        <v>11.07</v>
+        <v>6.65</v>
       </c>
       <c r="E668" t="n">
         <v>4.42</v>
@@ -84512,7 +84548,7 @@
         <v>10.6</v>
       </c>
       <c r="D669" t="n">
-        <v>10.6</v>
+        <v>6.75</v>
       </c>
       <c r="E669" t="n">
         <v>3.85</v>
@@ -84648,7 +84684,7 @@
         <v>10.55</v>
       </c>
       <c r="D670" t="n">
-        <v>10.55</v>
+        <v>7.91</v>
       </c>
       <c r="E670" t="n">
         <v>2.64</v>
@@ -84780,7 +84816,7 @@
         <v>9.68</v>
       </c>
       <c r="D671" t="n">
-        <v>9.68</v>
+        <v>8.26</v>
       </c>
       <c r="E671" t="n">
         <v>1.42</v>
@@ -84902,7 +84938,7 @@
         <v>8.470000000000001</v>
       </c>
       <c r="D672" t="n">
-        <v>8.470000000000001</v>
+        <v>8.51</v>
       </c>
       <c r="E672" t="n">
         <v>-0.04</v>
@@ -85004,9 +85040,11 @@
       <c r="B673" t="n">
         <v>2023</v>
       </c>
-      <c r="C673" t="inlineStr"/>
+      <c r="C673" t="n">
+        <v>7.71</v>
+      </c>
       <c r="D673" t="n">
-        <v>7.71</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="E673" t="n">
         <v>-1.33</v>
@@ -85072,7 +85110,7 @@
         <v>19.25</v>
       </c>
       <c r="D674" t="n">
-        <v>19.25</v>
+        <v>6.15</v>
       </c>
       <c r="E674" t="n">
         <v>13.1</v>
@@ -85186,7 +85224,7 @@
         <v>19.06</v>
       </c>
       <c r="D675" t="n">
-        <v>19.06</v>
+        <v>6.44</v>
       </c>
       <c r="E675" t="n">
         <v>12.62</v>
@@ -85300,7 +85338,7 @@
         <v>18.05</v>
       </c>
       <c r="D676" t="n">
-        <v>18.05</v>
+        <v>6.35</v>
       </c>
       <c r="E676" t="n">
         <v>11.7</v>
@@ -85418,7 +85456,7 @@
         <v>16.94</v>
       </c>
       <c r="D677" t="n">
-        <v>16.94</v>
+        <v>6.09</v>
       </c>
       <c r="E677" t="n">
         <v>10.85</v>
@@ -85536,7 +85574,7 @@
         <v>16.32</v>
       </c>
       <c r="D678" t="n">
-        <v>16.32</v>
+        <v>6.45</v>
       </c>
       <c r="E678" t="n">
         <v>9.869999999999999</v>
@@ -85654,7 +85692,7 @@
         <v>15.7</v>
       </c>
       <c r="D679" t="n">
-        <v>15.7</v>
+        <v>6.21</v>
       </c>
       <c r="E679" t="n">
         <v>9.49</v>
@@ -85774,7 +85812,7 @@
         <v>15.24</v>
       </c>
       <c r="D680" t="n">
-        <v>15.24</v>
+        <v>6.27</v>
       </c>
       <c r="E680" t="n">
         <v>8.970000000000001</v>
@@ -85900,7 +85938,7 @@
         <v>14.93</v>
       </c>
       <c r="D681" t="n">
-        <v>14.93</v>
+        <v>6.13</v>
       </c>
       <c r="E681" t="n">
         <v>8.800000000000001</v>
@@ -86026,7 +86064,7 @@
         <v>14.49</v>
       </c>
       <c r="D682" t="n">
-        <v>14.49</v>
+        <v>6.14</v>
       </c>
       <c r="E682" t="n">
         <v>8.35</v>
@@ -86156,7 +86194,7 @@
         <v>14.51</v>
       </c>
       <c r="D683" t="n">
-        <v>14.51</v>
+        <v>6.19</v>
       </c>
       <c r="E683" t="n">
         <v>8.32</v>
@@ -86286,7 +86324,7 @@
         <v>14.94</v>
       </c>
       <c r="D684" t="n">
-        <v>14.94</v>
+        <v>6.31</v>
       </c>
       <c r="E684" t="n">
         <v>8.630000000000001</v>
@@ -86422,7 +86460,7 @@
         <v>14.43</v>
       </c>
       <c r="D685" t="n">
-        <v>14.43</v>
+        <v>6.12</v>
       </c>
       <c r="E685" t="n">
         <v>8.31</v>
@@ -86562,7 +86600,7 @@
         <v>14.3</v>
       </c>
       <c r="D686" t="n">
-        <v>14.3</v>
+        <v>6.06</v>
       </c>
       <c r="E686" t="n">
         <v>8.24</v>
@@ -86702,7 +86740,7 @@
         <v>14.16</v>
       </c>
       <c r="D687" t="n">
-        <v>14.16</v>
+        <v>6.13</v>
       </c>
       <c r="E687" t="n">
         <v>8.029999999999999</v>
@@ -86838,7 +86876,7 @@
         <v>14.67</v>
       </c>
       <c r="D688" t="n">
-        <v>14.67</v>
+        <v>6.18</v>
       </c>
       <c r="E688" t="n">
         <v>8.49</v>
@@ -86972,7 +87010,7 @@
         <v>14.72</v>
       </c>
       <c r="D689" t="n">
-        <v>14.72</v>
+        <v>6.17</v>
       </c>
       <c r="E689" t="n">
         <v>8.550000000000001</v>
@@ -87110,7 +87148,7 @@
         <v>14.7</v>
       </c>
       <c r="D690" t="n">
-        <v>14.7</v>
+        <v>6.18</v>
       </c>
       <c r="E690" t="n">
         <v>8.52</v>
@@ -87250,7 +87288,7 @@
         <v>14.42</v>
       </c>
       <c r="D691" t="n">
-        <v>14.42</v>
+        <v>6.17</v>
       </c>
       <c r="E691" t="n">
         <v>8.25</v>
@@ -87386,7 +87424,7 @@
         <v>14.31</v>
       </c>
       <c r="D692" t="n">
-        <v>14.31</v>
+        <v>6.25</v>
       </c>
       <c r="E692" t="n">
         <v>8.06</v>
@@ -87520,7 +87558,7 @@
         <v>13.66</v>
       </c>
       <c r="D693" t="n">
-        <v>13.66</v>
+        <v>6.08</v>
       </c>
       <c r="E693" t="n">
         <v>7.58</v>
@@ -87656,7 +87694,7 @@
         <v>11.43</v>
       </c>
       <c r="D694" t="n">
-        <v>11.43</v>
+        <v>6.65</v>
       </c>
       <c r="E694" t="n">
         <v>4.78</v>
@@ -87792,7 +87830,7 @@
         <v>11.22</v>
       </c>
       <c r="D695" t="n">
-        <v>11.22</v>
+        <v>6.91</v>
       </c>
       <c r="E695" t="n">
         <v>4.31</v>
@@ -87916,7 +87954,7 @@
         <v>10.6</v>
       </c>
       <c r="D696" t="n">
-        <v>10.6</v>
+        <v>7.23</v>
       </c>
       <c r="E696" t="n">
         <v>3.37</v>
@@ -88023,7 +88061,9 @@
         <v>2023</v>
       </c>
       <c r="C697" t="inlineStr"/>
-      <c r="D697" t="inlineStr"/>
+      <c r="D697" t="n">
+        <v>7.57</v>
+      </c>
       <c r="E697" t="inlineStr"/>
       <c r="F697" t="inlineStr"/>
       <c r="G697" t="inlineStr"/>
@@ -88090,7 +88130,7 @@
         <v>16.49</v>
       </c>
       <c r="D698" t="n">
-        <v>16.49</v>
+        <v>4.57</v>
       </c>
       <c r="E698" t="n">
         <v>11.92</v>
@@ -88208,7 +88248,7 @@
         <v>16.55</v>
       </c>
       <c r="D699" t="n">
-        <v>16.55</v>
+        <v>4.84</v>
       </c>
       <c r="E699" t="n">
         <v>11.71</v>
@@ -88322,7 +88362,7 @@
         <v>16.42</v>
       </c>
       <c r="D700" t="n">
-        <v>16.42</v>
+        <v>4.86</v>
       </c>
       <c r="E700" t="n">
         <v>11.56</v>
@@ -88440,7 +88480,7 @@
         <v>15.68</v>
       </c>
       <c r="D701" t="n">
-        <v>15.68</v>
+        <v>4.73</v>
       </c>
       <c r="E701" t="n">
         <v>10.95</v>
@@ -88558,7 +88598,7 @@
         <v>15.97</v>
       </c>
       <c r="D702" t="n">
-        <v>15.97</v>
+        <v>4.79</v>
       </c>
       <c r="E702" t="n">
         <v>11.18</v>
@@ -88676,7 +88716,7 @@
         <v>15.93</v>
       </c>
       <c r="D703" t="n">
-        <v>15.93</v>
+        <v>4.95</v>
       </c>
       <c r="E703" t="n">
         <v>10.98</v>
@@ -88794,7 +88834,7 @@
         <v>15.53</v>
       </c>
       <c r="D704" t="n">
-        <v>15.53</v>
+        <v>4.84</v>
       </c>
       <c r="E704" t="n">
         <v>10.69</v>
@@ -88918,7 +88958,7 @@
         <v>14.8</v>
       </c>
       <c r="D705" t="n">
-        <v>14.8</v>
+        <v>5.04</v>
       </c>
       <c r="E705" t="n">
         <v>9.76</v>
@@ -89042,7 +89082,7 @@
         <v>14.31</v>
       </c>
       <c r="D706" t="n">
-        <v>14.31</v>
+        <v>4.62</v>
       </c>
       <c r="E706" t="n">
         <v>9.69</v>
@@ -89172,7 +89212,7 @@
         <v>14.38</v>
       </c>
       <c r="D707" t="n">
-        <v>14.38</v>
+        <v>4.7</v>
       </c>
       <c r="E707" t="n">
         <v>9.68</v>
@@ -89300,7 +89340,7 @@
         <v>14.14</v>
       </c>
       <c r="D708" t="n">
-        <v>14.14</v>
+        <v>5.1</v>
       </c>
       <c r="E708" t="n">
         <v>9.039999999999999</v>
@@ -89434,7 +89474,7 @@
         <v>13.65</v>
       </c>
       <c r="D709" t="n">
-        <v>13.65</v>
+        <v>4.68</v>
       </c>
       <c r="E709" t="n">
         <v>8.970000000000001</v>
@@ -89574,7 +89614,7 @@
         <v>13.26</v>
       </c>
       <c r="D710" t="n">
-        <v>13.26</v>
+        <v>4.33</v>
       </c>
       <c r="E710" t="n">
         <v>8.93</v>
@@ -89714,7 +89754,7 @@
         <v>13.12</v>
       </c>
       <c r="D711" t="n">
-        <v>13.12</v>
+        <v>4.5</v>
       </c>
       <c r="E711" t="n">
         <v>8.619999999999999</v>
@@ -89850,7 +89890,7 @@
         <v>13.1</v>
       </c>
       <c r="D712" t="n">
-        <v>13.1</v>
+        <v>4.53</v>
       </c>
       <c r="E712" t="n">
         <v>8.57</v>
@@ -89984,7 +90024,7 @@
         <v>12.62</v>
       </c>
       <c r="D713" t="n">
-        <v>12.62</v>
+        <v>4.58</v>
       </c>
       <c r="E713" t="n">
         <v>8.039999999999999</v>
@@ -90122,7 +90162,7 @@
         <v>13.69</v>
       </c>
       <c r="D714" t="n">
-        <v>13.69</v>
+        <v>4.72</v>
       </c>
       <c r="E714" t="n">
         <v>8.970000000000001</v>
@@ -90262,7 +90302,7 @@
         <v>13.44</v>
       </c>
       <c r="D715" t="n">
-        <v>13.44</v>
+        <v>4.75</v>
       </c>
       <c r="E715" t="n">
         <v>8.69</v>
@@ -90398,7 +90438,7 @@
         <v>13.32</v>
       </c>
       <c r="D716" t="n">
-        <v>13.32</v>
+        <v>5.54</v>
       </c>
       <c r="E716" t="n">
         <v>7.78</v>
@@ -90530,7 +90570,7 @@
         <v>13.72</v>
       </c>
       <c r="D717" t="n">
-        <v>13.72</v>
+        <v>5.69</v>
       </c>
       <c r="E717" t="n">
         <v>8.029999999999999</v>
@@ -90666,7 +90706,7 @@
         <v>11.59</v>
       </c>
       <c r="D718" t="n">
-        <v>11.59</v>
+        <v>5.88</v>
       </c>
       <c r="E718" t="n">
         <v>5.71</v>
@@ -90800,7 +90840,7 @@
         <v>11.62</v>
       </c>
       <c r="D719" t="n">
-        <v>11.62</v>
+        <v>6.09</v>
       </c>
       <c r="E719" t="n">
         <v>5.53</v>
@@ -90924,7 +90964,7 @@
         <v>10.6</v>
       </c>
       <c r="D720" t="n">
-        <v>10.6</v>
+        <v>6.19</v>
       </c>
       <c r="E720" t="n">
         <v>4.41</v>
@@ -91089,10 +91129,10 @@
         <v>2000</v>
       </c>
       <c r="C722" t="n">
-        <v>14.5</v>
+        <v>17.57</v>
       </c>
       <c r="D722" t="n">
-        <v>17.57</v>
+        <v>5.4</v>
       </c>
       <c r="E722" t="n">
         <v>12.17</v>
@@ -91210,7 +91250,7 @@
         <v>16.82</v>
       </c>
       <c r="D723" t="n">
-        <v>16.82</v>
+        <v>5.69</v>
       </c>
       <c r="E723" t="n">
         <v>11.13</v>
@@ -91326,7 +91366,7 @@
         <v>16.3</v>
       </c>
       <c r="D724" t="n">
-        <v>16.3</v>
+        <v>5.43</v>
       </c>
       <c r="E724" t="n">
         <v>10.87</v>
@@ -91446,7 +91486,7 @@
         <v>16.01</v>
       </c>
       <c r="D725" t="n">
-        <v>16.01</v>
+        <v>5.23</v>
       </c>
       <c r="E725" t="n">
         <v>10.78</v>
@@ -91566,7 +91606,7 @@
         <v>16</v>
       </c>
       <c r="D726" t="n">
-        <v>16</v>
+        <v>5.09</v>
       </c>
       <c r="E726" t="n">
         <v>10.91</v>
@@ -91686,7 +91726,7 @@
         <v>16.42</v>
       </c>
       <c r="D727" t="n">
-        <v>16.42</v>
+        <v>5.04</v>
       </c>
       <c r="E727" t="n">
         <v>11.38</v>
@@ -91808,7 +91848,7 @@
         <v>15.79</v>
       </c>
       <c r="D728" t="n">
-        <v>15.79</v>
+        <v>5.03</v>
       </c>
       <c r="E728" t="n">
         <v>10.76</v>
@@ -91934,7 +91974,7 @@
         <v>16.79</v>
       </c>
       <c r="D729" t="n">
-        <v>16.79</v>
+        <v>5.01</v>
       </c>
       <c r="E729" t="n">
         <v>11.78</v>
@@ -92060,7 +92100,7 @@
         <v>16.05</v>
       </c>
       <c r="D730" t="n">
-        <v>16.05</v>
+        <v>4.88</v>
       </c>
       <c r="E730" t="n">
         <v>11.17</v>
@@ -92190,7 +92230,7 @@
         <v>15.99</v>
       </c>
       <c r="D731" t="n">
-        <v>15.99</v>
+        <v>5.43</v>
       </c>
       <c r="E731" t="n">
         <v>10.56</v>
@@ -92317,10 +92357,10 @@
         <v>2010</v>
       </c>
       <c r="C732" t="n">
-        <v>14.85</v>
+        <v>15.99</v>
       </c>
       <c r="D732" t="n">
-        <v>15.99</v>
+        <v>4.14</v>
       </c>
       <c r="E732" t="n">
         <v>10.56</v>
@@ -92456,7 +92496,7 @@
         <v>14.99</v>
       </c>
       <c r="D733" t="n">
-        <v>14.99</v>
+        <v>4.42</v>
       </c>
       <c r="E733" t="n">
         <v>10.57</v>
@@ -92596,7 +92636,7 @@
         <v>15.32</v>
       </c>
       <c r="D734" t="n">
-        <v>15.32</v>
+        <v>4.48</v>
       </c>
       <c r="E734" t="n">
         <v>10.84</v>
@@ -92736,7 +92776,7 @@
         <v>15.84</v>
       </c>
       <c r="D735" t="n">
-        <v>15.84</v>
+        <v>4.92</v>
       </c>
       <c r="E735" t="n">
         <v>10.92</v>
@@ -92876,7 +92916,7 @@
         <v>16.44</v>
       </c>
       <c r="D736" t="n">
-        <v>16.44</v>
+        <v>4.97</v>
       </c>
       <c r="E736" t="n">
         <v>11.47</v>
@@ -93016,7 +93056,7 @@
         <v>15.59</v>
       </c>
       <c r="D737" t="n">
-        <v>15.59</v>
+        <v>4.51</v>
       </c>
       <c r="E737" t="n">
         <v>11.08</v>
@@ -93156,7 +93196,7 @@
         <v>15.34</v>
       </c>
       <c r="D738" t="n">
-        <v>15.34</v>
+        <v>4.26</v>
       </c>
       <c r="E738" t="n">
         <v>11.08</v>
@@ -93296,7 +93336,7 @@
         <v>15.88</v>
       </c>
       <c r="D739" t="n">
-        <v>15.88</v>
+        <v>4.48</v>
       </c>
       <c r="E739" t="n">
         <v>11.4</v>
@@ -93432,7 +93472,7 @@
         <v>10.69</v>
       </c>
       <c r="D740" t="n">
-        <v>10.69</v>
+        <v>4.56</v>
       </c>
       <c r="E740" t="n">
         <v>6.13</v>
@@ -93564,7 +93604,7 @@
         <v>8.140000000000001</v>
       </c>
       <c r="D741" t="n">
-        <v>8.140000000000001</v>
+        <v>4.45</v>
       </c>
       <c r="E741" t="n">
         <v>3.69</v>
@@ -93700,7 +93740,7 @@
         <v>6.94</v>
       </c>
       <c r="D742" t="n">
-        <v>6.94</v>
+        <v>5.46</v>
       </c>
       <c r="E742" t="n">
         <v>1.48</v>
@@ -93834,7 +93874,7 @@
         <v>6.16</v>
       </c>
       <c r="D743" t="n">
-        <v>6.16</v>
+        <v>5.6</v>
       </c>
       <c r="E743" t="n">
         <v>0.5600000000000001</v>
@@ -93958,7 +93998,7 @@
         <v>6.53</v>
       </c>
       <c r="D744" t="n">
-        <v>6.53</v>
+        <v>5.76</v>
       </c>
       <c r="E744" t="n">
         <v>0.77</v>
